--- a/Find_detect/output_528/log_database_log_rawAligned_final.xlsx
+++ b/Find_detect/output_528/log_database_log_rawAligned_final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B474"/>
+  <dimension ref="A1:B475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-23 15:04:26.022 [WARNING] database P0000010414 T0000000000000079443  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:57:04.515 [INFO] database P0000089970 T0000000000000089970  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-23 14:42:59.193 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942188452), ckpt_fil(1), ckpt_off(223807488), cur_lsn(2826942345610), l_next_seq(46659482246), g_next_seq(46630684983), cur_free(259502080), total_space(8589926400), used_space(35700224), free_space(8554226176), n_ep(1)</t>
+          <t>2025-04-23 14:45:21.121 [WARNING] database P0000010414 T0000000000000126757  socket_err_should_retry errno:38</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,19 +472,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-23 15:04:16.013 [ERROR] database P0000010414 T0000000000000015329  Reached the max session limit.</t>
+          <t>2025-04-23 14:55:11.699 [ERROR] database P0000010414 T0000000000000015307  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-23 15:29:49.330 [INFO] database P0000050345 T0000000000000050345  version info: enterprise</t>
+          <t>2025-04-23 15:10:54.994 [ERROR] database P0000010414 T0000000000000015331  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-23 15:11:43.274 [ERROR] database P0000010414 T0000000000000015345  Reached the max session limit.</t>
+          <t>2025-04-23 15:12:29.704 [ERROR] database P0000010414 T0000000000000015326  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-23 16:00:38.836 [INFO] database P0000095243 T0000000000000095243  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 15:07:02.002 [ERROR] database P0000010414 T0000000000000015295  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,43 +520,43 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-23 15:07:02.002 [ERROR] database P0000010414 T0000000000000015295  Reached the max session limit.</t>
+          <t>2025-04-23 14:55:26.228 [ERROR] database P0000010414 T0000000000000015300  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-23 14:57:57.995 [ERROR] database P0000010414 T0000000000000015326  Reached the max session limit.</t>
+          <t>2025-04-23 14:56:58.772 [ERROR] database P0000010414 T0000000000000015296  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-23 14:43:31.161 [INFO] database P0000010414 T0000000000000015201  utsk_dw_udp_bro used 31s, cur_bro_time = 1745390611, last_bro_time = 1745390580</t>
+          <t>2025-04-23 15:04:26.020 [WARNING] database P0000010414 T0000000000000080165  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-23 15:08:30.713 [ERROR] database P0000010414 T0000000000000015323  Reached the max session limit.</t>
+          <t>2025-04-23 15:47:35.454 [INFO] database P0000076042 T0000000000000076042  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -568,19 +568,19 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-23 15:58:15.233 [INFO] database P0000091708 T0000000000000091708  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 15:33:22.573 [INFO] database P0000055615 T0000000000000055615  info get from dcr disk, asm_host = localhost, asm_port = 57414032, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-23 15:49:57.600 [INFO] database P0000079472 T0000000000000079472  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 15:27:27.308 [INFO] database P0000046902 T0000000000000046902  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-04-23 14:42:59.204 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0</t>
+          <t>2025-04-23 15:10:32.742 [WARNING] database P0000010414 T0000000000000123096  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,19 +604,19 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-04-23 15:31:00.119 [INFO] database P0000052077 T0000000000000052077  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 14:59:05.111 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-04-23 14:42:59.186 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942181083), ckpt_fil(1), ckpt_off(222162944), cur_lsn(2826942345304), l_next_seq(46659482240), g_next_seq(46630684977), cur_free(259026944), total_space(8589926400), used_space(37253120), free_space(8552673280), n_ep(1)</t>
+          <t>2025-04-23 15:20:20.620 [INFO] database P0000036263 T0000000000000036263  info get from dcr disk, asm_host = localhost, asm_port = -1771569040, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -628,31 +628,31 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-04-23 15:39:18.015 [INFO] database P0000064327 T0000000000000064327  info get from dcr disk, asm_host = localhost, asm_port = 1547395440, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 15:22:42.694 [INFO] database P0000039800 T0000000000000039800  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-04-23 15:10:32.742 [WARNING] database P0000010414 T0000000000000127206  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:51:09.099 [INFO] database P0000081263 T0000000000000081263  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-04-23 15:10:32.743 [WARNING] database P0000010414 T0000000000000123369  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:25:04.971 [INFO] database P0000043419 T0000000000000043419  info get from dcr disk, asm_host = localhost, asm_port = -495345360, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -664,31 +664,31 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-04-23 15:35:44.511 [INFO] database P0000059105 T0000000000000059105  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 14:45:01.185 [WARNING] database P0000010414 T0000000000000126115  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-04-23 14:58:55.554 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit.</t>
+          <t>2025-04-23 15:59:26.765 [INFO] database P0000093438 T0000000000000093438  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-04-23 15:08:04.426 [ERROR] database P0000010414 T0000000000000015317  Reached the max session limit.</t>
+          <t>2025-04-23 16:00:38.836 [INFO] database P0000095243 T0000000000000095243  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,31 +700,31 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-04-23 15:04:51.975 [ERROR] database P0000010414 T0000000000000015319  Reached the max session limit.</t>
+          <t>2025-04-23 15:13:29.661 [ERROR] database P0000010414 T0000000000000015356  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-04-23 14:45:01.185 [WARNING] database P0000010414 T0000000000000126115  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:41:42.829 [INFO] database P0000067641 T0000000000000067641  info get from dcr disk, asm_host = localhost, asm_port = -1636733808, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-04-23 14:56:26.674 [ERROR] database P0000010414 T0000000000000015340  Reached the max session limit.</t>
+          <t>2025-04-23 15:23:53.898 [INFO] database P0000041615 T0000000000000041615  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -736,31 +736,31 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-04-23 15:11:12.948 [WARNING] database P0000010414 T0000000000000077762  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:52:22.141 [INFO] database P0000082963 T0000000000000082963  version info: enterprise</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-04-23 14:48:45.628 [WARNING] database P0000010414 T0000000000000132706  socket_err_should_retry errno:38</t>
+          <t>2025-04-23 15:04:50.324 [ERROR] database P0000010414 T0000000000000015329  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-04-23 15:04:26.150 [ERROR] database P0000010414 T0000000000000015343  Reached the max session limit.</t>
+          <t>2025-04-23 14:57:52.311 [ERROR] database P0000010414 T0000000000000015346  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-04-23 14:43:31.161 [WARNING] database P0000010414 T0000000000000015201  Get svr info time used:31</t>
+          <t>2025-04-23 14:50:04.170 [WARNING] database P0000010414 T0000000000000133070  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-04-23 14:45:21.121 [WARNING] database P0000010414 T0000000000000126757  socket_err_should_retry errno:38</t>
+          <t>2025-04-23 15:47:35.743 [INFO] database P0000076042 T0000000000000076042  info get from dcr disk, asm_host = localhost, asm_port = -951173008, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-04-23 15:34:33.809 [INFO] database P0000057373 T0000000000000057373  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 15:00:22.300 [ERROR] database P0000010414 T0000000000000015312  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-04-23 15:41:42.829 [INFO] database P0000067641 T0000000000000067641  info get from dcr disk, asm_host = localhost, asm_port = -1636733808, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 15:00:04.475 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -820,19 +820,19 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-04-23 14:50:04.170 [WARNING] database P0000010414 T0000000000000133540  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:47:35.765 [INFO] database P0000076042 T0000000000000076042  version info: enterprise</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-04-23 15:27:27.317 [INFO] database P0000046902 T0000000000000046902  version info: enterprise</t>
+          <t>2025-04-23 15:20:20.633 [INFO] database P0000036263 T0000000000000036263  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-04-23 15:10:52.473 [ERROR] database P0000010414 T0000000000000015294  Reached the max session limit.</t>
+          <t>2025-04-23 15:20:20.632 [INFO] database P0000036263 T0000000000000036263  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-04-23 15:10:03.790 [ERROR] database P0000010414 T0000000000000015336  Reached the max session limit.</t>
+          <t>2025-04-23 15:53:30.936 [INFO] database P0000084718 T0000000000000084718  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-04-23 15:20:20.262 [INFO] database P0000036263 T0000000000000036263  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 14:43:00.189 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-04-23 15:29:49.022 [INFO] database P0000050345 T0000000000000050345  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 15:11:12.947 [WARNING] database P0000010414 T0000000000000070502  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -892,19 +892,19 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-04-23 15:10:32.742 [WARNING] database P0000010414 T0000000000000125099  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:07:01.182 [ERROR] database P0000010414 T0000000000000015315  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-04-23 15:20:20.633 [INFO] database P0000036263 T0000000000000036263  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 15:44:02.630 [INFO] database P0000070934 T0000000000000070934  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-04-23 15:40:29.248 [INFO] database P0000066033 T0000000000000066033  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 15:11:01.386 [ERROR] database P0000010414 T0000000000000015316  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -928,19 +928,19 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-04-23 15:38:06.944 [INFO] database P0000062613 T0000000000000062613  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 15:06:35.720 [ERROR] database P0000010414 T0000000000000015342  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-04-23 15:54:41.967 [INFO] database P0000086447 T0000000000000086447  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 15:00:00.181 [ERROR] database P0000010414 T0000000000000015302  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -952,31 +952,31 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-04-23 15:58:15.702 [INFO] database P0000091708 T0000000000000091708  info get from dcr disk, asm_host = localhost, asm_port = 1974518400, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 14:42:59.198 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942199188), ckpt_fil(1), ckpt_off(226743296), cur_lsn(2826942345656), l_next_seq(46659482251), g_next_seq(46630684988), cur_free(259518464), total_space(8589926400), used_space(32775168), free_space(8557151232), n_ep(1)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-04-23 14:43:00.198 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942206388), ckpt_fil(1), ckpt_off(228001792), cur_lsn(2826942354102), l_next_seq(46659482378), g_next_seq(46630685115), cur_free(260492800), total_space(8589926400), used_space(32491008), free_space(8557435392), n_ep(1)</t>
+          <t>2025-04-23 15:19:09.593 [INFO] database P0000034512 T0000000000000034512  version info: enterprise</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-04-23 15:49:58.321 [INFO] database P0000079472 T0000000000000079472  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 15:00:47.959 [ERROR] database P0000010414 T0000000000000015351  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -988,55 +988,55 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-04-23 15:32:11.549 [INFO] database P0000053877 T0000000000000053877  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 15:00:16.898 [ERROR] database P0000010414 T0000000000000015316  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-04-23 15:57:04.523 [INFO] database P0000089970 T0000000000000089970  version info: enterprise</t>
+          <t>2025-04-23 15:31:00.119 [INFO] database P0000052077 T0000000000000052077  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-04-23 15:48:47.049 [INFO] database P0000077779 T0000000000000077779  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 15:14:49.167 [ERROR] database P0000010414 T0000000000000015338  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-04-23 14:57:44.004 [WARNING] database P0000010414 T0000000000000067469  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 14:48:45.628 [WARNING] database P0000010414 T0000000000000132706  socket_err_should_retry errno:38</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-04-23 15:21:31.353 [INFO] database P0000038061 T0000000000000038061  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 15:08:04.426 [ERROR] database P0000010414 T0000000000000015317  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1048,91 +1048,91 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-04-23 15:57:04.501 [INFO] database P0000089970 T0000000000000089970  info get from dcr disk, asm_host = localhost, asm_port = -1193106144, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 16:00:37.442 [INFO] database P0000095243 T0000000000000095243  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-04-23 16:00:38.822 [INFO] database P0000095243 T0000000000000095243  info get from dcr disk, asm_host = localhost, asm_port = 1288713792, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 15:48:47.035 [INFO] database P0000077779 T0000000000000077779  info get from dcr disk, asm_host = localhost, asm_port = -60361776, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-04-23 15:13:09.229 [ERROR] database P0000010414 T0000000000000015351  Reached the max session limit.</t>
+          <t>2025-04-23 14:50:04.170 [WARNING] database P0000010414 T0000000000000133540  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-04-23 15:00:47.959 [ERROR] database P0000010414 T0000000000000015351  Reached the max session limit.</t>
+          <t>2025-04-23 15:04:26.022 [WARNING] database P0000010414 T0000000000000081300  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-04-23 15:21:31.609 [INFO] database P0000038061 T0000000000000038061  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 15:11:51.960 [ERROR] database P0000010414 T0000000000000015334  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-04-23 14:59:50.202 [ERROR] database P0000010414 T0000000000000015341  Reached the max session limit.</t>
+          <t>2025-04-23 14:43:00.176 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942203301), ckpt_fil(1), ckpt_off(227524608), cur_lsn(2826942348090), l_next_seq(46659482375), g_next_seq(46630685112), cur_free(260068352), total_space(8589926400), used_space(32543744), free_space(8557382656), n_ep(1)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-04-23 15:10:32.744 [WARNING] database P0000010414 T0000000000000126573  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:02:30.311 [ERROR] database P0000010414 T0000000000000015357  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-04-23 15:04:26.024 [WARNING] database P0000010414 T0000000000000083672  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 14:42:59.186 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942181083), ckpt_fil(1), ckpt_off(222162944), cur_lsn(2826942345304), l_next_seq(46659482240), g_next_seq(46630684977), cur_free(259026944), total_space(8589926400), used_space(37253120), free_space(8552673280), n_ep(1)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1144,43 +1144,43 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-04-23 14:55:48.356 [ERROR] database P0000010414 T0000000000000015297  Reached the max session limit.</t>
+          <t>2025-04-23 16:01:48.491 [INFO] database P0000097032 T0000000000000097032  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-04-23 15:33:22.587 [INFO] database P0000055615 T0000000000000055615  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 15:11:09.164 [ERROR] database P0000010414 T0000000000000015319  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-04-23 15:09:09.182 [ERROR] database P0000010414 T0000000000000015302  Reached the max session limit.</t>
+          <t>2025-04-23 15:39:17.780 [INFO] database P0000064327 T0000000000000064327  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-04-23 15:25:04.971 [INFO] database P0000043419 T0000000000000043419  info get from dcr disk, asm_host = localhost, asm_port = -495345360, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 14:56:41.297 [ERROR] database P0000010414 T0000000000000015306  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-04-23 14:43:00.190 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942206355), ckpt_fil(1), ckpt_off(228001792), cur_lsn(2826942351158), l_next_seq(46659482377), g_next_seq(46630685114), cur_free(260260864), total_space(8589926400), used_space(32259072), free_space(8557667328), n_ep(1)</t>
+          <t>2025-04-23 15:57:04.142 [INFO] database P0000089970 T0000000000000089970  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-04-23 14:59:47.357 [ERROR] database P0000010414 T0000000000000015303  Reached the max session limit.</t>
+          <t>2025-04-23 15:10:32.742 [WARNING] database P0000010414 T0000000000000127206  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-04-23 15:53:30.940 [INFO] database P0000084718 T0000000000000084718  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 15:14:43.968 [ERROR] database P0000010414 T0000000000000015341  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-04-23 15:51:08.696 [INFO] database P0000081263 T0000000000000081263  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 15:00:47.834 [WARNING] database P0000010414 T0000000000000130910  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-04-23 14:48:09.610 [WARNING] database P0000010414 T0000000000000131641  socket_err_should_retry errno:38</t>
+          <t>2025-04-23 15:07:10.257 [ERROR] database P0000010414 T0000000000000015352  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-04-23 15:55:54.131 [INFO] database P0000088185 T0000000000000088185  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 15:45:14.239 [INFO] database P0000072676 T0000000000000072676  info get from dcr disk, asm_host = localhost, asm_port = -1605455696, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-04-23 15:00:18.038 [ERROR] database P0000010414 T0000000000000015351  Reached the max session limit.</t>
+          <t>2025-04-23 15:46:24.914 [INFO] database P0000074366 T0000000000000074366  version info: enterprise</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-04-23 15:45:14.239 [INFO] database P0000072676 T0000000000000072676  info get from dcr disk, asm_host = localhost, asm_port = -1605455696, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 15:06:49.328 [ERROR] database P0000010414 T0000000000000015309  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-04-23 15:41:40.698 [INFO] database P0000067641 T0000000000000067641  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 15:54:42.279 [INFO] database P0000086447 T0000000000000086447  version info: enterprise</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1300,19 +1300,19 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-04-23 15:59:26.334 [INFO] database P0000093438 T0000000000000093438  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 15:35:44.851 [INFO] database P0000059105 T0000000000000059105  version info: enterprise</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-04-23 15:49:57.597 [INFO] database P0000079472 T0000000000000079472  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 15:58:15.715 [INFO] database P0000091708 T0000000000000091708  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1324,43 +1324,43 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-04-23 15:54:41.964 [INFO] database P0000086447 T0000000000000086447  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 14:42:59.176 [INFO] database P0000010414 T0000000000000015201  utsk_dw_udp_bro used 11s, cur_bro_time = 1745390579, last_bro_time = 1745390568</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-04-23 14:46:01.127 [WARNING] database P0000010414 T0000000000000127812  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:55:54.140 [INFO] database P0000088185 T0000000000000088185  version info: enterprise</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-04-23 14:59:25.790 [ERROR] database P0000010414 T0000000000000015301  Reached the max session limit.</t>
+          <t>2025-04-23 15:26:15.993 [INFO] database P0000045167 T0000000000000045167  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-04-23 15:14:02.347 [ERROR] database P0000010414 T0000000000000015342  Reached the max session limit.</t>
+          <t>2025-04-23 14:58:19.573 [ERROR] database P0000010414 T0000000000000015333  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1372,7 +1372,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-04-23 14:42:48.023 [INFO] database P0000010414 T0000000000000015249  checkpoint generate by dirty_pages[10536] &gt; ckpt_dirty_pages[10000]</t>
+          <t>2025-04-23 15:19:09.178 [INFO] database P0000034512 T0000000000000034512  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-04-23 15:17:58.479 [INFO] database P0000032706 T0000000000000032706  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 15:05:44.344 [ERROR] database P0000010414 T0000000000000015351  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1396,43 +1396,43 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-04-23 15:53:32.144 [INFO] database P0000084718 T0000000000000084718  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 15:46:24.354 [INFO] database P0000074366 T0000000000000074366  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-04-23 14:55:10.806 [WARNING] database P0000010414 T0000000000000131695  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:07:05.076 [ERROR] database P0000010414 T0000000000000015318  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-04-23 15:32:11.219 [INFO] database P0000053877 T0000000000000053877  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 15:57:04.523 [INFO] database P0000089970 T0000000000000089970  version info: enterprise</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-04-23 16:00:37.442 [INFO] database P0000095243 T0000000000000095243  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 15:14:02.347 [ERROR] database P0000010414 T0000000000000015342  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1444,7 +1444,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-04-23 15:10:32.742 [WARNING] database P0000010414 T0000000000000123096  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:39:18.015 [INFO] database P0000064327 T0000000000000064327  info get from dcr disk, asm_host = localhost, asm_port = 1547395440, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1456,7 +1456,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-04-23 15:46:24.914 [INFO] database P0000074366 T0000000000000074366  version info: enterprise</t>
+          <t>2025-04-23 15:21:31.357 [INFO] database P0000038061 T0000000000000038061  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1468,7 +1468,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-04-23 15:33:22.586 [INFO] database P0000055615 T0000000000000055615  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 15:42:51.061 [INFO] database P0000069304 T0000000000000069304  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1480,19 +1480,19 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-04-23 15:04:39.595 [ERROR] database P0000010414 T0000000000000015355  Reached the max session limit.</t>
+          <t>2025-04-23 15:44:02.629 [INFO] database P0000070934 T0000000000000070934  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-04-23 15:47:35.450 [INFO] database P0000076042 T0000000000000076042  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 15:59:26.330 [INFO] database P0000093438 T0000000000000093438  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1504,7 +1504,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000075932  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:06:41.873 [ERROR] database P0000010414 T0000000000000015301  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1516,19 +1516,19 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-04-23 15:17:58.457 [INFO] database P0000032706 T0000000000000032706  info get from dcr disk, asm_host = localhost, asm_port = 1167375216, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 15:04:16.013 [ERROR] database P0000010414 T0000000000000015329  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-04-23 14:53:19.229 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit.</t>
+          <t>2025-04-23 15:55:54.118 [INFO] database P0000088185 T0000000000000088185  info get from dcr disk, asm_host = localhost, asm_port = -667439056, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1540,7 +1540,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025-04-23 15:02:45.814 [ERROR] database P0000010414 T0000000000000015329  Reached the max session limit.</t>
+          <t>2025-04-23 14:53:42.091 [ERROR] database P0000010414 T0000000000000015335  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1552,31 +1552,31 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025-04-23 15:02:23.613 [ERROR] database P0000010414 T0000000000000015347  Reached the max session limit.</t>
+          <t>2025-04-23 14:55:03.044 [ERROR] database P0000010414 T0000000000000015354  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025-04-23 14:55:20.227 [ERROR] database P0000010414 T0000000000000015307  Reached the max session limit.</t>
+          <t>2025-04-23 15:45:13.251 [INFO] database P0000072676 T0000000000000072676  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025-04-23 15:31:00.122 [INFO] database P0000052077 T0000000000000052077  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 15:16:40.755 [ERROR] database P0000010414 T0000000000000015334  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1588,7 +1588,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025-04-23 14:55:03.685 [ERROR] database P0000010414 T0000000000000015307  Reached the max session limit.</t>
+          <t>2025-04-23 15:21:31.595 [INFO] database P0000038061 T0000000000000038061  info get from dcr disk, asm_host = localhost, asm_port = 669194080, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1600,7 +1600,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025-04-23 15:59:26.765 [INFO] database P0000093438 T0000000000000093438  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 15:33:22.587 [INFO] database P0000055615 T0000000000000055615  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1612,7 +1612,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025-04-23 15:45:14.252 [INFO] database P0000072676 T0000000000000072676  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 15:08:59.204 [ERROR] database P0000010414 T0000000000000015314  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1624,19 +1624,19 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025-04-23 15:39:18.037 [INFO] database P0000064327 T0000000000000064327  version info: enterprise</t>
+          <t>2025-04-23 15:22:42.443 [INFO] database P0000039800 T0000000000000039800  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025-04-23 15:00:16.898 [ERROR] database P0000010414 T0000000000000015316  Reached the max session limit.</t>
+          <t>2025-04-23 15:22:42.447 [INFO] database P0000039800 T0000000000000039800  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1648,43 +1648,43 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025-04-23 15:19:09.586 [INFO] database P0000034512 T0000000000000034512  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 14:57:57.995 [ERROR] database P0000010414 T0000000000000015326  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025-04-23 15:52:22.119 [INFO] database P0000082963 T0000000000000082963  info get from dcr disk, asm_host = localhost, asm_port = -919864256, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 14:46:01.127 [WARNING] database P0000010414 T0000000000000127812  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025-04-23 15:26:16.000 [INFO] database P0000045167 T0000000000000045167  version info: enterprise</t>
+          <t>2025-04-23 15:31:00.456 [INFO] database P0000052077 T0000000000000052077  info get from dcr disk, asm_host = localhost, asm_port = 1325557600, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025-04-23 15:27:26.848 [INFO] database P0000046902 T0000000000000046902  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 15:17:58.487 [INFO] database P0000032706 T0000000000000032706  version info: enterprise</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1696,43 +1696,43 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025-04-23 15:11:18.428 [ERROR] database P0000010414 T0000000000000015345  Reached the max session limit.</t>
+          <t>2025-04-23 15:31:00.469 [INFO] database P0000052077 T0000000000000052077  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025-04-23 14:59:25.388 [ERROR] database P0000010414 T0000000000000015346  Reached the max session limit.</t>
+          <t>2025-04-23 15:52:22.133 [INFO] database P0000082963 T0000000000000082963  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025-04-23 15:07:05.076 [ERROR] database P0000010414 T0000000000000015318  Reached the max session limit.</t>
+          <t>2025-04-23 15:32:11.556 [INFO] database P0000053877 T0000000000000053877  version info: enterprise</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025-04-23 15:14:28.745 [ERROR] database P0000010414 T0000000000000015295  Reached the max session limit.</t>
+          <t>2025-04-23 14:43:00.184 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942205832), ckpt_fil(1), ckpt_off(227897856), cur_lsn(2826942349077), l_next_seq(46659482376), g_next_seq(46630685113), cur_free(260072448), total_space(8589926400), used_space(32174592), free_space(8557751808), n_ep(1)</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1744,7 +1744,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025-04-23 14:59:48.106 [ERROR] database P0000010414 T0000000000000015335  Reached the max session limit.</t>
+          <t>2025-04-23 15:19:09.586 [INFO] database P0000034512 T0000000000000034512  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1756,19 +1756,19 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-04-23 15:13:29.661 [ERROR] database P0000010414 T0000000000000015356  Reached the max session limit.</t>
+          <t>2025-04-23 15:35:44.830 [INFO] database P0000059105 T0000000000000059105  info get from dcr disk, asm_host = localhost, asm_port = 1096376560, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-04-23 15:10:32.740 [WARNING] database P0000010414 T0000000000000124796  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 14:59:25.388 [ERROR] database P0000010414 T0000000000000015346  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1780,7 +1780,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025-04-23 14:43:00.198 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0</t>
+          <t>2025-04-23 15:39:17.777 [INFO] database P0000064327 T0000000000000064327  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1792,31 +1792,31 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025-04-23 16:01:48.494 [INFO] database P0000097032 T0000000000000097032  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 14:56:24.826 [ERROR] database P0000010414 T0000000000000015344  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025-04-23 15:54:42.257 [INFO] database P0000086447 T0000000000000086447  info get from dcr disk, asm_host = localhost, asm_port = -632488800, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 15:23:53.563 [INFO] database P0000041615 T0000000000000041615  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025-04-23 15:40:29.256 [INFO] database P0000066033 T0000000000000066033  version info: enterprise</t>
+          <t>2025-04-23 15:26:15.742 [INFO] database P0000045167 T0000000000000045167  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1828,7 +1828,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025-04-23 14:42:36.073 [INFO] database P0000010414 T0000000000000013572  checkpoint end, 969 pages flushed, used_space[32018944], free_space[8557907456].</t>
+          <t>2025-04-23 15:53:32.152 [INFO] database P0000084718 T0000000000000084718  version info: enterprise</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1840,19 +1840,19 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025-04-23 15:59:26.772 [INFO] database P0000093438 T0000000000000093438  version info: enterprise</t>
+          <t>2025-04-23 15:59:26.750 [INFO] database P0000093438 T0000000000000093438  info get from dcr disk, asm_host = localhost, asm_port = -1724178496, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025-04-23 15:06:49.328 [ERROR] database P0000010414 T0000000000000015309  Reached the max session limit.</t>
+          <t>2025-04-23 14:58:46.207 [ERROR] database P0000010414 T0000000000000015298  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1864,7 +1864,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025-04-23 15:15:52.046 [ERROR] database P0000010414 T0000000000000015357  Reached the max session limit.</t>
+          <t>2025-04-23 15:31:00.477 [INFO] database P0000052077 T0000000000000052077  version info: enterprise</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1876,67 +1876,67 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025-04-23 15:17:58.480 [INFO] database P0000032706 T0000000000000032706  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 15:35:44.514 [INFO] database P0000059105 T0000000000000059105  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025-04-23 14:43:01.309 [WARNING] database P0000010414 T0000000000000122737  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:58:15.716 [INFO] database P0000091708 T0000000000000091708  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025-04-23 15:01:46.393 [ERROR] database P0000010414 T0000000000000015322  Reached the max session limit.</t>
+          <t>2025-04-23 15:44:02.232 [INFO] database P0000070934 T0000000000000070934  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025-04-23 15:44:02.616 [INFO] database P0000070934 T0000000000000070934  info get from dcr disk, asm_host = localhost, asm_port = -1934299008, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000076024  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025-04-23 15:45:13.254 [INFO] database P0000072676 T0000000000000072676  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 15:53:32.130 [INFO] database P0000084718 T0000000000000084718  info get from dcr disk, asm_host = localhost, asm_port = -1557384896, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000084497  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:21:31.353 [INFO] database P0000038061 T0000000000000038061  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1948,7 +1948,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025-04-23 15:39:18.029 [INFO] database P0000064327 T0000000000000064327  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 15:12:06.304 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1960,31 +1960,31 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025-04-23 15:44:02.637 [INFO] database P0000070934 T0000000000000070934  version info: enterprise</t>
+          <t>2025-04-23 14:55:10.806 [WARNING] database P0000010414 T0000000000000131695  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000076024  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:38:06.931 [INFO] database P0000062613 T0000000000000062613  info get from dcr disk, asm_host = localhost, asm_port = 417008448, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025-04-23 15:17:58.487 [INFO] database P0000032706 T0000000000000032706  version info: enterprise</t>
+          <t>2025-04-23 15:33:22.595 [INFO] database P0000055615 T0000000000000055615  version info: enterprise</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1996,31 +1996,31 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025-04-23 14:55:38.427 [ERROR] database P0000010414 T0000000000000015317  Reached the max session limit.</t>
+          <t>2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000081132  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000079466  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:28:38.272 [INFO] database P0000048633 T0000000000000048633  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025-04-23 14:58:19.573 [ERROR] database P0000010414 T0000000000000015333  Reached the max session limit.</t>
+          <t>2025-04-23 14:55:10.806 [WARNING] database P0000010414 T0000000000000131677  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2032,7 +2032,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025-04-23 14:47:01.095 [WARNING] database P0000010414 T0000000000000129525  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:58:15.236 [INFO] database P0000091708 T0000000000000091708  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2044,43 +2044,43 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025-04-23 15:51:09.098 [INFO] database P0000081263 T0000000000000081263  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 15:04:25.545 [ERROR] database P0000010414 T0000000000000015312  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025-04-23 15:20:20.266 [INFO] database P0000036263 T0000000000000036263  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 14:43:31.161 [INFO] database P0000010414 T0000000000000015201  utsk_dw_udp_bro used 31s, cur_bro_time = 1745390611, last_bro_time = 1745390580</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025-04-23 14:42:59.193 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0</t>
+          <t>2025-04-23 15:53:30.940 [INFO] database P0000084718 T0000000000000084718  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025-04-23 15:14:49.167 [ERROR] database P0000010414 T0000000000000015338  Reached the max session limit.</t>
+          <t>2025-04-23 15:25:04.999 [INFO] database P0000043419 T0000000000000043419  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2092,7 +2092,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025-04-23 15:27:27.309 [INFO] database P0000046902 T0000000000000046902  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 14:58:51.943 [ERROR] database P0000010414 T0000000000000015336  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2104,7 +2104,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025-04-23 15:00:02.184 [ERROR] database P0000010414 T0000000000000015336  Reached the max session limit.</t>
+          <t>2025-04-23 15:57:04.514 [INFO] database P0000089970 T0000000000000089970  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2116,7 +2116,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025-04-23 16:00:38.844 [INFO] database P0000095243 T0000000000000095243  version info: enterprise</t>
+          <t>2025-04-23 15:42:51.687 [INFO] database P0000069304 T0000000000000069304  version info: enterprise</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2128,7 +2128,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025-04-23 15:59:26.750 [INFO] database P0000093438 T0000000000000093438  info get from dcr disk, asm_host = localhost, asm_port = -1724178496, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 15:53:32.143 [INFO] database P0000084718 T0000000000000084718  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2140,7 +2140,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025-04-23 15:44:02.232 [INFO] database P0000070934 T0000000000000070934  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 15:16:45.092 [FATAL] database P0000010414 T0000000000000010873  VTD_CMD_SYS_HALT</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2152,31 +2152,31 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025-04-23 15:04:26.020 [WARNING] database P0000010414 T0000000000000083470  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:21:31.608 [INFO] database P0000038061 T0000000000000038061  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025-04-23 15:02:30.311 [ERROR] database P0000010414 T0000000000000015357  Reached the max session limit.</t>
+          <t>2025-04-23 14:53:59.516 [ERROR] database P0000010414 T0000000000000015353  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025-04-23 15:47:35.757 [INFO] database P0000076042 T0000000000000076042  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 14:42:36.073 [INFO] database P0000010414 T0000000000000013572  checkpoint end, 969 pages flushed, used_space[32018944], free_space[8557907456].</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2188,7 +2188,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025-04-23 14:58:46.207 [ERROR] database P0000010414 T0000000000000015298  Reached the max session limit.</t>
+          <t>2025-04-23 15:01:41.293 [ERROR] database P0000010414 T0000000000000015319  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2200,43 +2200,43 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025-04-23 15:00:36.506 [ERROR] database P0000010414 T0000000000000015317  Reached the max session limit.</t>
+          <t>2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000069170  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025-04-23 15:45:14.253 [INFO] database P0000072676 T0000000000000072676  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 15:11:18.428 [ERROR] database P0000010414 T0000000000000015345  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025-04-23 14:55:03.044 [ERROR] database P0000010414 T0000000000000015354  Reached the max session limit.</t>
+          <t>2025-04-23 14:42:59.204 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025-04-23 15:52:19.786 [INFO] database P0000082963 T0000000000000082963  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 15:47:35.756 [INFO] database P0000076042 T0000000000000076042  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2248,43 +2248,43 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025-04-23 15:20:20.620 [INFO] database P0000036263 T0000000000000036263  info get from dcr disk, asm_host = localhost, asm_port = -1771569040, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 14:53:13.964 [ERROR] database P0000010414 T0000000000000015302  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025-04-23 15:06:41.873 [ERROR] database P0000010414 T0000000000000015301  Reached the max session limit.</t>
+          <t>2025-04-23 15:19:09.585 [INFO] database P0000034512 T0000000000000034512  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025-04-23 14:52:56.353 [ERROR] database P0000010414 T0000000000000015341  Reached the max session limit.</t>
+          <t>2025-04-23 15:10:32.744 [WARNING] database P0000010414 T0000000000000126806  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025-04-23 15:26:15.742 [INFO] database P0000045167 T0000000000000045167  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 15:10:32.740 [WARNING] database P0000010414 T0000000000000124796  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2296,7 +2296,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025-04-23 15:04:51.975 [ERROR] database P0000010414 T0000000000000015318  Reached the max session limit.</t>
+          <t>2025-04-23 14:42:59.198 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2308,19 +2308,19 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025-04-23 15:15:31.463 [ERROR] database P0000010414 T0000000000000015336  Reached the max session limit.</t>
+          <t>2025-04-23 15:04:26.022 [WARNING] database P0000010414 T0000000000000079443  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000074212  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:10:32.834 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2332,7 +2332,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025-04-23 15:14:43.968 [ERROR] database P0000010414 T0000000000000015341  Reached the max session limit.</t>
+          <t>2025-04-23 14:55:51.055 [ERROR] database P0000010414 T0000000000000015314  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2344,19 +2344,19 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025-04-23 15:04:26.022 [WARNING] database P0000010414 T0000000000000079836  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 14:55:20.227 [ERROR] database P0000010414 T0000000000000015307  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025-04-23 15:32:11.556 [INFO] database P0000053877 T0000000000000053877  version info: enterprise</t>
+          <t>2025-04-23 14:58:22.627 [ERROR] database P0000010414 T0000000000000015303  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2368,43 +2368,43 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025-04-23 15:49:58.320 [INFO] database P0000079472 T0000000000000079472  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 15:54:42.270 [INFO] database P0000086447 T0000000000000086447  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025-04-23 15:51:08.693 [INFO] database P0000081263 T0000000000000081263  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 14:58:42.689 [ERROR] database P0000010414 T0000000000000015328  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025-04-23 15:08:29.745 [WARNING] database P0000010414 T0000000000000020558  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:07:52.608 [ERROR] database P0000010414 T0000000000000015319  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025-04-23 15:06:53.695 [ERROR] database P0000010414 T0000000000000015328  Reached the max session limit.</t>
+          <t>2025-04-23 14:57:31.702 [ERROR] database P0000010414 T0000000000000015307  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2416,31 +2416,31 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025-04-23 14:53:59.516 [ERROR] database P0000010414 T0000000000000015353  Reached the max session limit.</t>
+          <t>2025-04-23 15:10:03.790 [ERROR] database P0000010414 T0000000000000015336  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025-04-23 15:12:06.304 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit.</t>
+          <t>2025-04-23 14:42:59.186 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025-04-23 15:23:53.568 [INFO] database P0000041615 T0000000000000041615  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 15:20:20.641 [INFO] database P0000036263 T0000000000000036263  version info: enterprise</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2452,19 +2452,19 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025-04-23 14:58:22.627 [ERROR] database P0000010414 T0000000000000015303  Reached the max session limit.</t>
+          <t>2025-04-23 15:55:54.131 [INFO] database P0000088185 T0000000000000088185  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025-04-23 15:55:53.057 [INFO] database P0000088185 T0000000000000088185  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 15:10:32.743 [WARNING] database P0000010414 T0000000000000123369  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2476,7 +2476,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2025-04-23 14:59:19.366 [ERROR] database P0000010414 T0000000000000015338  Reached the max session limit.</t>
+          <t>2025-04-23 15:38:06.694 [INFO] database P0000062613 T0000000000000062613  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2488,19 +2488,19 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2025-04-23 15:16:45.085 [FATAL] database P0000010414 T0000000000000010873  hpc_heart_beat_dsk_thread halt, sys_status:OPEN, vtd_status:SYSHALT</t>
+          <t>2025-04-23 14:54:30.615 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025-04-23 15:49:58.329 [INFO] database P0000079472 T0000000000000079472  version info: enterprise</t>
+          <t>2025-04-23 15:27:27.317 [INFO] database P0000046902 T0000000000000046902  version info: enterprise</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2512,7 +2512,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2025-04-23 15:46:24.354 [INFO] database P0000074366 T0000000000000074366  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 14:42:59.193 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2524,7 +2524,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2025-04-23 15:06:18.387 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit.</t>
+          <t>2025-04-23 15:02:38.521 [ERROR] database P0000010414 T0000000000000015319  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2536,55 +2536,55 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2025-04-23 15:47:35.743 [INFO] database P0000076042 T0000000000000076042  info get from dcr disk, asm_host = localhost, asm_port = -951173008, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 15:59:26.334 [INFO] database P0000093438 T0000000000000093438  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2025-04-23 15:10:32.744 [WARNING] database P0000010414 T0000000000000126806  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:15:31.463 [ERROR] database P0000010414 T0000000000000015336  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2025-04-23 14:54:30.615 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit.</t>
+          <t>2025-04-23 14:57:05.371 [ERROR] database P0000010414 T0000000000000015356  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025-04-23 15:54:42.271 [INFO] database P0000086447 T0000000000000086447  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 14:57:05.371 [ERROR] database P0000010414 T0000000000000015355  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2025-04-23 14:42:48.038 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0</t>
+          <t>2025-04-23 14:42:48.023 [INFO] database P0000010414 T0000000000000013572  checkpoint begin, used_space[37070336], free_space[8552856064]...</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2596,19 +2596,19 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2025-04-23 15:36:55.944 [INFO] database P0000060808 T0000000000000060808  version info: enterprise</t>
+          <t>2025-04-23 15:00:47.828 [WARNING] database P0000010414 T0000000000000054087  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2025-04-23 15:06:35.720 [ERROR] database P0000010414 T0000000000000015342  Reached the max session limit.</t>
+          <t>2025-04-23 15:06:18.387 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2620,7 +2620,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2025-04-23 14:59:10.811 [ERROR] database P0000010414 T0000000000000015347  Reached the max session limit.</t>
+          <t>2025-04-23 15:54:42.257 [INFO] database P0000086447 T0000000000000086447  info get from dcr disk, asm_host = localhost, asm_port = -632488800, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2632,19 +2632,19 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2025-04-23 15:41:42.843 [INFO] database P0000067641 T0000000000000067641  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 14:53:17.223 [ERROR] database P0000010414 T0000000000000015318  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>鏁版嵁搴撴棩蹇</t>
+          <t>2025-04-23 15:03:13.279 [ERROR] database P0000010414 T0000000000000015343  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2025-04-23 15:00:47.828 [WARNING] database P0000010414 T0000000000000054087  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:17:58.479 [INFO] database P0000032706 T0000000000000032706  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2668,19 +2668,19 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2025-04-23 14:55:26.228 [ERROR] database P0000010414 T0000000000000015300  Reached the max session limit.</t>
+          <t>2025-04-23 15:09:09.182 [ERROR] database P0000010414 T0000000000000015302  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2025-04-23 15:11:12.950 [WARNING] database P0000010414 T0000000000000067645  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:27:26.848 [INFO] database P0000046902 T0000000000000046902  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2692,31 +2692,31 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2025-04-23 15:25:05.000 [INFO] database P0000043419 T0000000000000043419  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 14:55:10.864 [ERROR] database P0000010414 T0000000000000015348  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2025-04-23 15:35:44.844 [INFO] database P0000059105 T0000000000000059105  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 15:02:18.311 [ERROR] database P0000010414 T0000000000000015310  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025-04-23 14:42:48.023 [INFO] database P0000010414 T0000000000000015249  checkpoint requested by CKPT_DIRTY_PAGES, rlog free space[8552856064], used space[37070336]</t>
+          <t>2025-04-23 15:00:04.220 [ERROR] database P0000010414 T0000000000000015345  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2728,43 +2728,43 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2025-04-23 15:36:55.936 [INFO] database P0000060808 T0000000000000060808  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 15:40:29.248 [INFO] database P0000066033 T0000000000000066033  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025-04-23 16:00:38.835 [INFO] database P0000095243 T0000000000000095243  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 15:33:22.586 [INFO] database P0000055615 T0000000000000055615  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2025-04-23 15:48:47.035 [INFO] database P0000077779 T0000000000000077779  info get from dcr disk, asm_host = localhost, asm_port = -60361776, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 14:59:47.357 [ERROR] database P0000010414 T0000000000000015303  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2025-04-23 15:10:32.834 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit.</t>
+          <t>2025-04-23 15:10:29.512 [ERROR] database P0000010414 T0000000000000015325  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2776,7 +2776,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2025-04-23 15:04:50.324 [ERROR] database P0000010414 T0000000000000015329  Reached the max session limit.</t>
+          <t>2025-04-23 14:50:01.882 [WARNING] database P0000010414 T0000000000000135098  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2788,7 +2788,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2025-04-23 15:04:26.019 [WARNING] database P0000010414 T0000000000000081894  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 14:57:56.527 [ERROR] database P0000010414 T0000000000000015344  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2800,19 +2800,19 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2025-04-23 15:54:42.270 [INFO] database P0000086447 T0000000000000086447  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 15:32:11.535 [INFO] database P0000053877 T0000000000000053877  info get from dcr disk, asm_host = localhost, asm_port = -1909819136, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2025-04-23 14:54:45.620 [ERROR] database P0000010414 T0000000000000015351  Reached the max session limit.</t>
+          <t>2025-04-23 15:45:14.253 [INFO] database P0000072676 T0000000000000072676  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2824,7 +2824,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2025-04-23 14:42:59.156 [INFO] database P0000010414 T0000000000000015201  utsk_get_dw_svr_info used 11 seconds</t>
+          <t>2025-04-23 14:54:20.919 [ERROR] database P0000010414 T0000000000000015346  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2836,7 +2836,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2025-04-23 14:42:59.198 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942199188), ckpt_fil(1), ckpt_off(226743296), cur_lsn(2826942345656), l_next_seq(46659482251), g_next_seq(46630684988), cur_free(259518464), total_space(8589926400), used_space(32775168), free_space(8557151232), n_ep(1)</t>
+          <t>2025-04-23 14:53:17.651 [ERROR] database P0000010414 T0000000000000015337  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2848,7 +2848,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2025-04-23 15:28:38.281 [INFO] database P0000048633 T0000000000000048633  version info: enterprise</t>
+          <t>2025-04-23 15:58:15.724 [INFO] database P0000091708 T0000000000000091708  version info: enterprise</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2860,19 +2860,19 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2025-04-23 15:16:45.084 [INFO] database P0000010414 T0000000000000010414  hpc_heart_beat_halt_and_wait change hdisk flag from 221 to 221</t>
+          <t>2025-04-23 15:52:19.786 [INFO] database P0000082963 T0000000000000082963  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2025-04-23 14:50:04.170 [WARNING] database P0000010414 T0000000000000133070  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:48:46.513 [INFO] database P0000077779 T0000000000000077779  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2884,7 +2884,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2025-04-23 14:55:10.806 [WARNING] database P0000010414 T0000000000000131677  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:04:26.020 [WARNING] database P0000010414 T0000000000000083247  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2896,7 +2896,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2025-04-23 15:48:46.513 [INFO] database P0000077779 T0000000000000077779  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 15:45:14.261 [INFO] database P0000072676 T0000000000000072676  version info: enterprise</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2908,19 +2908,19 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2025-04-23 14:57:54.970 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit.</t>
+          <t>2025-04-23 15:32:11.548 [INFO] database P0000053877 T0000000000000053877  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2025-04-23 15:02:38.521 [ERROR] database P0000010414 T0000000000000015319  Reached the max session limit.</t>
+          <t>2025-04-23 16:01:48.494 [INFO] database P0000097032 T0000000000000097032  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -2932,19 +2932,19 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2025-04-23 15:10:16.604 [ERROR] database P0000010414 T0000000000000015310  Reached the max session limit.</t>
+          <t>2025-04-23 14:43:00.168 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942202067), ckpt_fil(1), ckpt_off(227298304), cur_lsn(2826942348090), l_next_seq(46659482374), g_next_seq(46630685111), cur_free(260064256), total_space(8589926400), used_space(32765952), free_space(8557160448), n_ep(1)</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2025-04-23 15:11:09.163 [WARNING] database P0000010414 T0000000000000051265  socket_err_should_retry errno:38</t>
+          <t>2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000084497  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -2956,55 +2956,55 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2025-04-23 15:57:04.515 [INFO] database P0000089970 T0000000000000089970  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 14:43:00.198 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942206388), ckpt_fil(1), ckpt_off(228001792), cur_lsn(2826942354102), l_next_seq(46659482378), g_next_seq(46630685115), cur_free(260492800), total_space(8589926400), used_space(32491008), free_space(8557435392), n_ep(1)</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2025-04-23 15:19:09.178 [INFO] database P0000034512 T0000000000000034512  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>鏁版嵁搴撴棩蹇</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2025-04-23 14:55:52.796 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit.</t>
+          <t>2025-04-23 15:49:57.600 [INFO] database P0000079472 T0000000000000079472  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2025-04-23 15:46:24.907 [INFO] database P0000074366 T0000000000000074366  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 15:08:30.713 [ERROR] database P0000010414 T0000000000000015323  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2025-04-23 15:34:33.795 [INFO] database P0000057373 T0000000000000057373  info get from dcr disk, asm_host = localhost, asm_port = 24652992, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 14:43:31.161 [WARNING] database P0000010414 T0000000000000015201  Get svr info time used:31</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -3016,7 +3016,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2025-04-23 14:57:05.371 [ERROR] database P0000010414 T0000000000000015355  Reached the max session limit.</t>
+          <t>2025-04-23 15:19:09.572 [INFO] database P0000034512 T0000000000000034512  info get from dcr disk, asm_host = localhost, asm_port = 934125424, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -3028,7 +3028,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2025-04-23 15:23:53.563 [INFO] database P0000041615 T0000000000000041615  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 15:26:15.744 [INFO] database P0000045167 T0000000000000045167  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -3040,7 +3040,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2025-04-23 15:36:55.604 [INFO] database P0000060808 T0000000000000060808  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 15:20:20.266 [INFO] database P0000036263 T0000000000000036263  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -3052,7 +3052,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2025-04-23 14:59:21.918 [ERROR] database P0000010414 T0000000000000015306  Reached the max session limit.</t>
+          <t>2025-04-23 15:36:55.607 [INFO] database P0000060808 T0000000000000060808  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -3064,43 +3064,43 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2025-04-23 15:32:11.535 [INFO] database P0000053877 T0000000000000053877  info get from dcr disk, asm_host = localhost, asm_port = -1909819136, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 15:02:45.814 [ERROR] database P0000010414 T0000000000000015329  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2025-04-23 15:35:44.843 [INFO] database P0000059105 T0000000000000059105  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 15:36:55.936 [INFO] database P0000060808 T0000000000000060808  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2025-04-23 14:48:01.025 [WARNING] database P0000010414 T0000000000000131281  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:46:24.907 [INFO] database P0000074366 T0000000000000074366  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2025-04-23 15:04:26.022 [WARNING] database P0000010414 T0000000000000081572  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:51:08.693 [INFO] database P0000081263 T0000000000000081263  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -3112,19 +3112,19 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2025-04-23 14:53:17.651 [ERROR] database P0000010414 T0000000000000015337  Reached the max session limit.</t>
+          <t>2025-04-23 15:23:53.906 [INFO] database P0000041615 T0000000000000041615  version info: enterprise</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2025-04-23 15:53:32.130 [INFO] database P0000084718 T0000000000000084718  info get from dcr disk, asm_host = localhost, asm_port = -1557384896, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 15:08:29.746 [WARNING] database P0000010414 T0000000000000020550  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -3136,31 +3136,31 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2025-04-23 15:44:02.229 [INFO] database P0000070934 T0000000000000070934  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 15:41:40.698 [INFO] database P0000067641 T0000000000000067641  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2025-04-23 15:16:45.092 [FATAL] database P0000010414 T0000000000000010873  VTD_CMD_SYS_HALT</t>
+          <t>2025-04-23 14:54:19.302 [ERROR] database P0000010414 T0000000000000015311  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2025-04-23 15:07:10.257 [ERROR] database P0000010414 T0000000000000015352  Reached the max session limit.</t>
+          <t>2025-04-23 15:00:52.245 [ERROR] database P0000010414 T0000000000000015321  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -3172,43 +3172,43 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2025-04-23 16:00:37.446 [INFO] database P0000095243 T0000000000000095243  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 15:25:04.656 [INFO] database P0000043419 T0000000000000043419  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2025-04-23 15:00:22.246 [WARNING] database P0000010414 T0000000000000038860  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:54:41.964 [INFO] database P0000086447 T0000000000000086447  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2025-04-23 15:17:58.204 [INFO] database P0000032706 T0000000000000032706  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 14:48:01.025 [WARNING] database P0000010414 T0000000000000131281  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2025-04-23 15:38:06.697 [INFO] database P0000062613 T0000000000000062613  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 14:47:01.095 [WARNING] database P0000010414 T0000000000000129525  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -3220,7 +3220,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2025-04-23 15:10:30.019 [ERROR] database P0000010414 T0000000000000015354  Reached the max session limit.</t>
+          <t>2025-04-23 14:59:07.322 [ERROR] database P0000010414 T0000000000000015303  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -3232,7 +3232,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2025-04-23 15:38:06.953 [INFO] database P0000062613 T0000000000000062613  version info: enterprise</t>
+          <t>2025-04-23 15:48:47.056 [INFO] database P0000077779 T0000000000000077779  version info: enterprise</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -3244,7 +3244,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2025-04-23 15:14:59.739 [ERROR] database P0000010414 T0000000000000015356  Reached the max session limit.</t>
+          <t>2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000082807  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -3256,7 +3256,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2025-04-23 14:54:12.745 [ERROR] database P0000010414 T0000000000000015326  Reached the max session limit.</t>
+          <t>2025-04-23 15:25:04.653 [INFO] database P0000043419 T0000000000000043419  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -3268,79 +3268,79 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2025-04-23 15:55:53.060 [INFO] database P0000088185 T0000000000000088185  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 14:57:44.004 [WARNING] database P0000010414 T0000000000000067469  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2025-04-23 15:04:26.022 [WARNING] database P0000010414 T0000000000000081300  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:36:55.944 [INFO] database P0000060808 T0000000000000060808  version info: enterprise</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2025-04-23 15:58:15.716 [INFO] database P0000091708 T0000000000000091708  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 15:10:32.741 [WARNING] database P0000010414 T0000000000000125500  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2025-04-23 15:08:59.204 [ERROR] database P0000010414 T0000000000000015314  Reached the max session limit.</t>
+          <t>2025-04-23 14:43:01.309 [WARNING] database P0000010414 T0000000000000122737  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2025-04-23 15:02:26.865 [ERROR] database P0000010414 T0000000000000015341  Reached the max session limit.</t>
+          <t>2025-04-23 15:05:56.986 [ERROR] database P0000010414 T0000000000000015354  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2025-04-23 15:36:55.937 [INFO] database P0000060808 T0000000000000060808  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 15:00:36.506 [ERROR] database P0000010414 T0000000000000015317  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2025-04-23 15:47:35.454 [INFO] database P0000076042 T0000000000000076042  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 15:32:11.219 [INFO] database P0000053877 T0000000000000053877  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -3352,31 +3352,31 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2025-04-23 15:22:42.447 [INFO] database P0000039800 T0000000000000039800  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 15:48:47.048 [INFO] database P0000077779 T0000000000000077779  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2025-04-23 15:44:02.629 [INFO] database P0000070934 T0000000000000070934  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 15:32:11.549 [INFO] database P0000053877 T0000000000000053877  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2025-04-23 15:00:22.300 [ERROR] database P0000010414 T0000000000000015312  Reached the max session limit.</t>
+          <t>2025-04-23 15:04:26.019 [WARNING] database P0000010414 T0000000000000081894  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -3388,7 +3388,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2025-04-23 14:54:31.535 [ERROR] database P0000010414 T0000000000000015347  Reached the max session limit.</t>
+          <t>2025-04-23 14:55:41.259 [ERROR] database P0000010414 T0000000000000015347  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -3400,7 +3400,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2025-04-23 14:43:00.168 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942202067), ckpt_fil(1), ckpt_off(227298304), cur_lsn(2826942348090), l_next_seq(46659482374), g_next_seq(46630685111), cur_free(260064256), total_space(8589926400), used_space(32765952), free_space(8557160448), n_ep(1)</t>
+          <t>2025-04-23 14:56:08.344 [ERROR] database P0000010414 T0000000000000015329  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -3412,7 +3412,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2025-04-23 14:54:19.302 [ERROR] database P0000010414 T0000000000000015311  Reached the max session limit.</t>
+          <t>2025-04-23 15:53:32.144 [INFO] database P0000084718 T0000000000000084718  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -3424,7 +3424,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2025-04-23 14:49:01.955 [WARNING] database P0000010414 T0000000000000133224  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:38:06.945 [INFO] database P0000062613 T0000000000000062613  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -3436,31 +3436,31 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000081132  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 14:58:47.494 [ERROR] database P0000010414 T0000000000000015328  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2025-04-23 15:23:53.897 [INFO] database P0000041615 T0000000000000041615  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 14:43:00.168 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2025-04-23 14:59:22.916 [ERROR] database P0000010414 T0000000000000015337  Reached the max session limit.</t>
+          <t>2025-04-23 14:43:31.161 [INFO] database P0000010414 T0000000000000015201  utsk_get_dw_svr_info used 31 seconds</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -3472,19 +3472,19 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2025-04-23 15:11:01.386 [ERROR] database P0000010414 T0000000000000015316  Reached the max session limit.</t>
+          <t>2025-04-23 16:00:38.835 [INFO] database P0000095243 T0000000000000095243  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2025-04-23 15:45:13.251 [INFO] database P0000072676 T0000000000000072676  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 15:49:58.321 [INFO] database P0000079472 T0000000000000079472  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -3496,7 +3496,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2025-04-23 14:42:59.175 [WARNING] database P0000010414 T0000000000000015201  Get svr info time used:11</t>
+          <t>2025-04-23 14:43:00.190 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942206355), ckpt_fil(1), ckpt_off(228001792), cur_lsn(2826942351158), l_next_seq(46659482377), g_next_seq(46630685114), cur_free(260260864), total_space(8589926400), used_space(32259072), free_space(8557667328), n_ep(1)</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -3508,43 +3508,43 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2025-04-23 14:48:46.033 [WARNING] database P0000010414 T0000000000000132713  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 14:57:07.315 [ERROR] database P0000010414 T0000000000000015354  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2025-04-23 15:53:30.936 [INFO] database P0000084718 T0000000000000084718  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 14:59:50.202 [ERROR] database P0000010414 T0000000000000015341  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2025-04-23 14:58:47.494 [ERROR] database P0000010414 T0000000000000015328  Reached the max session limit.</t>
+          <t>2025-04-23 15:04:26.020 [WARNING] database P0000010414 T0000000000000083470  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2025-04-23 15:29:49.321 [INFO] database P0000050345 T0000000000000050345  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 15:51:09.085 [INFO] database P0000081263 T0000000000000081263  info get from dcr disk, asm_host = localhost, asm_port = 765973808, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -3556,7 +3556,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2025-04-23 15:10:32.743 [WARNING] database P0000010414 T0000000000000123810  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 14:55:48.356 [ERROR] database P0000010414 T0000000000000015297  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -3568,7 +3568,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2025-04-23 15:29:49.025 [INFO] database P0000050345 T0000000000000050345  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 15:40:29.256 [INFO] database P0000066033 T0000000000000066033  version info: enterprise</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -3580,19 +3580,19 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2025-04-23 14:57:52.311 [ERROR] database P0000010414 T0000000000000015346  Reached the max session limit.</t>
+          <t>2025-04-23 14:55:52.796 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2025-04-23 15:00:04.220 [ERROR] database P0000010414 T0000000000000015345  Reached the max session limit.</t>
+          <t>2025-04-23 15:04:57.200 [ERROR] database P0000010414 T0000000000000015325  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -3604,7 +3604,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2025-04-23 15:31:00.477 [INFO] database P0000052077 T0000000000000052077  version info: enterprise</t>
+          <t>2025-04-23 14:59:25.790 [ERROR] database P0000010414 T0000000000000015301  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -3616,7 +3616,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2025-04-23 15:59:26.330 [INFO] database P0000093438 T0000000000000093438  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 16:00:38.822 [INFO] database P0000095243 T0000000000000095243  info get from dcr disk, asm_host = localhost, asm_port = 1288713792, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -3628,19 +3628,19 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2025-04-23 15:25:04.653 [INFO] database P0000043419 T0000000000000043419  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 15:48:46.510 [INFO] database P0000077779 T0000000000000077779  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2025-04-23 15:53:32.152 [INFO] database P0000084718 T0000000000000084718  version info: enterprise</t>
+          <t>2025-04-23 15:46:24.892 [INFO] database P0000074366 T0000000000000074366  info get from dcr disk, asm_host = localhost, asm_port = -982684112, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -3652,19 +3652,19 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2025-04-23 14:43:00.176 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942203301), ckpt_fil(1), ckpt_off(227524608), cur_lsn(2826942348090), l_next_seq(46659482375), g_next_seq(46630685112), cur_free(260068352), total_space(8589926400), used_space(32543744), free_space(8557382656), n_ep(1)</t>
+          <t>2025-04-23 15:28:38.260 [INFO] database P0000048633 T0000000000000048633  info get from dcr disk, asm_host = localhost, asm_port = 2039617136, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2025-04-23 14:43:00.157 [INFO] database P0000010414 T0000000000000015248  checkpoint generate by dirty_pages[10999] &gt; ckpt_dirty_pages[10000]</t>
+          <t>2025-04-23 14:42:59.213 [INFO] database P0000010414 T0000000000000013572  checkpoint end, 951 pages flushed, used_space[32737280], free_space[8557189120].</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -3676,7 +3676,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2025-04-23 15:32:11.222 [INFO] database P0000053877 T0000000000000053877  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 15:39:18.037 [INFO] database P0000064327 T0000000000000064327  version info: enterprise</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -3688,55 +3688,55 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2025-04-23 14:53:41.354 [ERROR] database P0000010414 T0000000000000015312  Reached the max session limit.</t>
+          <t>2025-04-23 14:42:59.175 [WARNING] database P0000010414 T0000000000000015201  Get svr info time used:11</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2025-04-23 15:42:51.680 [INFO] database P0000069304 T0000000000000069304  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 15:33:22.314 [INFO] database P0000055615 T0000000000000055615  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2025-04-23 14:56:20.749 [ERROR] database P0000010414 T0000000000000015354  Reached the max session limit.</t>
+          <t>2025-04-23 15:10:16.604 [ERROR] database P0000010414 T0000000000000015310  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2025-04-23 15:00:04.475 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit.</t>
+          <t>2025-04-23 14:42:59.156 [INFO] database P0000010414 T0000000000000015201  utsk_get_dw_svr_info used 11 seconds</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2025-04-23 15:35:44.514 [INFO] database P0000059105 T0000000000000059105  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 15:40:29.247 [INFO] database P0000066033 T0000000000000066033  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -3748,7 +3748,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2025-04-23 15:45:14.261 [INFO] database P0000072676 T0000000000000072676  version info: enterprise</t>
+          <t>2025-04-23 14:55:38.427 [ERROR] database P0000010414 T0000000000000015317  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -3760,7 +3760,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2025-04-23 15:23:53.884 [INFO] database P0000041615 T0000000000000041615  info get from dcr disk, asm_host = localhost, asm_port = -1294140448, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 15:31:00.122 [INFO] database P0000052077 T0000000000000052077  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -3772,7 +3772,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2025-04-23 14:59:07.322 [ERROR] database P0000010414 T0000000000000015303  Reached the max session limit.</t>
+          <t>2025-04-23 15:34:33.421 [INFO] database P0000057373 T0000000000000057373  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -3784,31 +3784,31 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2025-04-23 14:57:07.315 [ERROR] database P0000010414 T0000000000000015354  Reached the max session limit.</t>
+          <t>2025-04-23 15:52:19.789 [INFO] database P0000082963 T0000000000000082963  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2025-04-23 15:36:55.922 [INFO] database P0000060808 T0000000000000060808  info get from dcr disk, asm_host = localhost, asm_port = -1069127248, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 15:17:58.457 [INFO] database P0000032706 T0000000000000032706  info get from dcr disk, asm_host = localhost, asm_port = 1167375216, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2025-04-23 15:31:00.468 [INFO] database P0000052077 T0000000000000052077  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 15:08:29.745 [WARNING] database P0000010414 T0000000000000020558  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -3820,55 +3820,55 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2025-04-23 15:38:06.931 [INFO] database P0000062613 T0000000000000062613  info get from dcr disk, asm_host = localhost, asm_port = 417008448, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 14:44:01.236 [WARNING] database P0000010414 T0000000000000124418  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2025-04-23 15:02:18.311 [ERROR] database P0000010414 T0000000000000015310  Reached the max session limit.</t>
+          <t>2025-04-23 14:57:54.970 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2025-04-23 14:42:59.198 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0</t>
+          <t>2025-04-23 15:12:23.733 [ERROR] database P0000010414 T0000000000000015316  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2025-04-23 15:11:26.366 [ERROR] database P0000010414 T0000000000000015312  Reached the max session limit.</t>
+          <t>2025-04-23 15:28:38.281 [INFO] database P0000048633 T0000000000000048633  version info: enterprise</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2025-04-23 15:34:33.418 [INFO] database P0000057373 T0000000000000057373  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000075932  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -3880,7 +3880,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2025-04-23 15:26:15.993 [INFO] database P0000045167 T0000000000000045167  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 15:15:37.478 [ERROR] database P0000010414 T0000000000000015322  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -3892,7 +3892,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2025-04-23 15:51:09.106 [INFO] database P0000081263 T0000000000000081263  version info: enterprise</t>
+          <t>2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000079466  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -3904,19 +3904,19 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2025-04-23 15:58:15.715 [INFO] database P0000091708 T0000000000000091708  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 15:07:27.575 [ERROR] database P0000010414 T0000000000000015339  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2025-04-23 14:54:41.604 [ERROR] database P0000010414 T0000000000000015326  Reached the max session limit.</t>
+          <t>2025-04-23 15:04:17.585 [ERROR] database P0000010414 T0000000000000015345  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -3928,31 +3928,31 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2025-04-23 15:07:01.182 [ERROR] database P0000010414 T0000000000000015315  Reached the max session limit.</t>
+          <t>2025-04-23 15:40:28.865 [INFO] database P0000066033 T0000000000000066033  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2025-04-23 15:11:12.947 [WARNING] database P0000010414 T0000000000000070502  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:05:07.862 [ERROR] database P0000010414 T0000000000000015335  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2025-04-23 15:26:15.744 [INFO] database P0000045167 T0000000000000045167  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 15:00:41.280 [ERROR] database P0000010414 T0000000000000015348  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -3964,7 +3964,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2025-04-23 15:47:35.765 [INFO] database P0000076042 T0000000000000076042  version info: enterprise</t>
+          <t>2025-04-23 15:58:15.702 [INFO] database P0000091708 T0000000000000091708  info get from dcr disk, asm_host = localhost, asm_port = 1974518400, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -3976,19 +3976,19 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2025-04-23 14:56:08.344 [ERROR] database P0000010414 T0000000000000015329  Reached the max session limit.</t>
+          <t>2025-04-23 15:29:49.330 [INFO] database P0000050345 T0000000000000050345  version info: enterprise</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2025-04-23 14:53:17.223 [ERROR] database P0000010414 T0000000000000015318  Reached the max session limit.</t>
+          <t>2025-04-23 15:14:28.745 [ERROR] database P0000010414 T0000000000000015295  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -4000,19 +4000,19 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2025-04-23 15:28:38.260 [INFO] database P0000048633 T0000000000000048633  info get from dcr disk, asm_host = localhost, asm_port = 2039617136, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 15:38:06.944 [INFO] database P0000062613 T0000000000000062613  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2025-04-23 15:17:58.211 [INFO] database P0000032706 T0000000000000032706  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 15:04:26.022 [WARNING] database P0000010414 T0000000000000081572  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -4024,7 +4024,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2025-04-23 14:42:59.186 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0</t>
+          <t>2025-04-23 15:34:33.808 [INFO] database P0000057373 T0000000000000057373  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -4036,7 +4036,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2025-04-23 15:11:51.960 [ERROR] database P0000010414 T0000000000000015334  Reached the max session limit.</t>
+          <t>2025-04-23 15:14:59.739 [ERROR] database P0000010414 T0000000000000015356  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -4048,31 +4048,31 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2025-04-23 15:07:27.575 [ERROR] database P0000010414 T0000000000000015339  Reached the max session limit.</t>
+          <t>2025-04-23 14:54:45.620 [ERROR] database P0000010414 T0000000000000015351  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2025-04-23 15:03:13.279 [ERROR] database P0000010414 T0000000000000015343  Reached the max session limit.</t>
+          <t>2025-04-23 15:39:18.029 [INFO] database P0000064327 T0000000000000064327  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2025-04-23 15:40:29.247 [INFO] database P0000066033 T0000000000000066033  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 15:28:37.938 [INFO] database P0000048633 T0000000000000048633  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -4084,19 +4084,19 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2025-04-23 14:43:00.157 [INFO] database P0000010414 T0000000000000015248  checkpoint requested by CKPT_DIRTY_PAGES, rlog free space[8556843520], used space[33082880]</t>
+          <t>2025-04-23 14:59:21.918 [ERROR] database P0000010414 T0000000000000015306  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2025-04-23 15:51:09.099 [INFO] database P0000081263 T0000000000000081263  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 15:51:09.098 [INFO] database P0000081263 T0000000000000081263  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -4108,7 +4108,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>2025-04-23 15:21:31.357 [INFO] database P0000038061 T0000000000000038061  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 14:42:48.023 [INFO] database P0000010414 T0000000000000015249  checkpoint requested by CKPT_DIRTY_PAGES, rlog free space[8552856064], used space[37070336]</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -4120,7 +4120,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2025-04-23 15:34:33.817 [INFO] database P0000057373 T0000000000000057373  version info: enterprise</t>
+          <t>2025-04-23 15:59:26.764 [INFO] database P0000093438 T0000000000000093438  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -4132,7 +4132,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2025-04-23 15:33:22.595 [INFO] database P0000055615 T0000000000000055615  version info: enterprise</t>
+          <t>2025-04-23 15:54:42.271 [INFO] database P0000086447 T0000000000000086447  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -4144,7 +4144,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>2025-04-23 15:33:22.573 [INFO] database P0000055615 T0000000000000055615  info get from dcr disk, asm_host = localhost, asm_port = 57414032, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 14:59:10.811 [ERROR] database P0000010414 T0000000000000015347  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -4156,55 +4156,55 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>2025-04-23 14:43:00.168 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0</t>
+          <t>2025-04-23 15:11:13.082 [ERROR] database P0000010414 T0000000000000015350  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>2025-04-23 15:05:56.986 [ERROR] database P0000010414 T0000000000000015354  Reached the max session limit.</t>
+          <t>2025-04-23 14:58:55.554 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>2025-04-23 15:39:17.780 [INFO] database P0000064327 T0000000000000064327  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 15:48:47.049 [INFO] database P0000077779 T0000000000000077779  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>2025-04-23 15:19:09.585 [INFO] database P0000034512 T0000000000000034512  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 14:43:00.183 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>2025-04-23 15:32:11.548 [INFO] database P0000053877 T0000000000000053877  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 15:26:15.992 [INFO] database P0000045167 T0000000000000045167  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -4216,19 +4216,19 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>2025-04-23 15:00:47.834 [WARNING] database P0000010414 T0000000000000130910  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:10:41.779 [ERROR] database P0000010414 T0000000000000015294  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>2025-04-23 15:35:44.851 [INFO] database P0000059105 T0000000000000059105  version info: enterprise</t>
+          <t>2025-04-23 15:04:51.975 [ERROR] database P0000010414 T0000000000000015318  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -4240,43 +4240,43 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>2025-04-23 15:07:52.608 [ERROR] database P0000010414 T0000000000000015319  Reached the max session limit.</t>
+          <t>2025-04-23 14:58:55.211 [ERROR] database P0000010414 T0000000000000015304  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>2025-04-23 15:25:05.008 [INFO] database P0000043419 T0000000000000043419  version info: enterprise</t>
+          <t>2025-04-23 14:43:00.198 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>2025-04-23 15:58:15.236 [INFO] database P0000091708 T0000000000000091708  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 15:13:15.903 [ERROR] database P0000010414 T0000000000000015295  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>2025-04-23 15:00:20.825 [ERROR] database P0000010414 T0000000000000015332  Reached the max session limit.</t>
+          <t>2025-04-23 15:16:45.092 [INFO] database P0000010414 T0000000000000010873  total 3 rfil opened!</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -4288,7 +4288,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>2025-04-23 15:05:07.862 [ERROR] database P0000010414 T0000000000000015335  Reached the max session limit.</t>
+          <t>2025-04-23 15:11:12.950 [WARNING] database P0000010414 T0000000000000067645  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -4300,19 +4300,19 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>2025-04-23 15:22:42.682 [INFO] database P0000039800 T0000000000000039800  info get from dcr disk, asm_host = localhost, asm_port = 115568496, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 15:45:13.254 [INFO] database P0000072676 T0000000000000072676  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>2025-04-23 15:25:04.999 [INFO] database P0000043419 T0000000000000043419  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 14:43:00.176 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -4324,31 +4324,31 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>2025-04-23 15:40:28.865 [INFO] database P0000066033 T0000000000000066033  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 15:10:32.742 [WARNING] database P0000010414 T0000000000000125099  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>2025-04-23 14:50:01.882 [WARNING] database P0000010414 T0000000000000135098  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:54:41.967 [INFO] database P0000086447 T0000000000000086447  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>2025-04-23 15:59:26.764 [INFO] database P0000093438 T0000000000000093438  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 14:57:44.007 [WARNING] database P0000010414 T0000000000000067486  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -4360,7 +4360,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>2025-04-23 15:19:09.183 [INFO] database P0000034512 T0000000000000034512  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 15:28:38.273 [INFO] database P0000048633 T0000000000000048633  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -4372,79 +4372,79 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>2025-04-23 15:04:26.020 [WARNING] database P0000010414 T0000000000000083247  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:11:09.163 [WARNING] database P0000010414 T0000000000000051265  socket_err_should_retry errno:38</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>2025-04-23 15:22:42.694 [INFO] database P0000039800 T0000000000000039800  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 14:54:31.535 [ERROR] database P0000010414 T0000000000000015347  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>2025-04-23 15:46:24.906 [INFO] database P0000074366 T0000000000000074366  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 15:38:06.697 [INFO] database P0000062613 T0000000000000062613  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>2025-04-23 15:52:22.132 [INFO] database P0000082963 T0000000000000082963  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 14:42:48.038 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942175456), ckpt_fil(1), ckpt_off(221043200), cur_lsn(2826942334025), l_next_seq(46659482236), g_next_seq(46630684973), cur_free(256176128), total_space(8589926400), used_space(35134464), free_space(8554791936), n_ep(1)</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>2025-04-23 15:29:49.309 [INFO] database P0000050345 T0000000000000050345  info get from dcr disk, asm_host = localhost, asm_port = 785222400, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 14:48:46.033 [WARNING] database P0000010414 T0000000000000132713  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>2025-04-23 16:01:48.491 [INFO] database P0000097032 T0000000000000097032  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 14:53:41.354 [ERROR] database P0000010414 T0000000000000015312  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>2025-04-23 15:54:42.279 [INFO] database P0000086447 T0000000000000086447  version info: enterprise</t>
+          <t>2025-04-23 15:16:45.085 [FATAL] database P0000010414 T0000000000000010873  hpc_heart_beat_dsk_thread halt, sys_status:OPEN, vtd_status:SYSHALT</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -4456,7 +4456,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>2025-04-23 15:42:51.666 [INFO] database P0000069304 T0000000000000069304  info get from dcr disk, asm_host = localhost, asm_port = 959175536, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 15:08:29.851 [ERROR] database P0000010414 T0000000000000015306  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -4468,67 +4468,67 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>2025-04-23 15:48:46.510 [INFO] database P0000077779 T0000000000000077779  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 15:00:02.184 [ERROR] database P0000010414 T0000000000000015336  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>2025-04-23 15:34:33.421 [INFO] database P0000057373 T0000000000000057373  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 15:00:22.246 [WARNING] database P0000010414 T0000000000000038860  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>2025-04-23 14:55:10.864 [ERROR] database P0000010414 T0000000000000015348  Reached the max session limit.</t>
+          <t>2025-04-23 15:34:33.817 [INFO] database P0000057373 T0000000000000057373  version info: enterprise</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>2025-04-23 14:42:59.213 [INFO] database P0000010414 T0000000000000013572  checkpoint end, 951 pages flushed, used_space[32737280], free_space[8557189120].</t>
+          <t>2025-04-23 15:49:57.597 [INFO] database P0000079472 T0000000000000079472  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>2025-04-23 15:49:58.307 [INFO] database P0000079472 T0000000000000079472  info get from dcr disk, asm_host = localhost, asm_port = 1055164720, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 15:25:05.000 [INFO] database P0000043419 T0000000000000043419  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>2025-04-23 14:56:24.826 [ERROR] database P0000010414 T0000000000000015344  Reached the max session limit.</t>
+          <t>2025-04-23 15:44:02.229 [INFO] database P0000070934 T0000000000000070934  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -4540,7 +4540,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>2025-04-23 15:26:15.992 [INFO] database P0000045167 T0000000000000045167  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 16:00:38.844 [INFO] database P0000095243 T0000000000000095243  version info: enterprise</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -4552,7 +4552,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>2025-04-23 15:34:33.808 [INFO] database P0000057373 T0000000000000057373  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 15:42:51.064 [INFO] database P0000069304 T0000000000000069304  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -4564,7 +4564,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>2025-04-23 15:42:51.679 [INFO] database P0000069304 T0000000000000069304  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 14:55:19.094 [ERROR] database P0000010414 T0000000000000015337  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -4576,19 +4576,19 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>2025-04-23 15:47:35.756 [INFO] database P0000076042 T0000000000000076042  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 15:17:58.480 [INFO] database P0000032706 T0000000000000032706  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>2025-04-23 15:12:29.704 [ERROR] database P0000010414 T0000000000000015326  Reached the max session limit.</t>
+          <t>2025-04-23 15:40:28.868 [INFO] database P0000066033 T0000000000000066033  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -4600,7 +4600,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>2025-04-23 15:28:37.935 [INFO] database P0000048633 T0000000000000048633  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 15:06:41.321 [ERROR] database P0000010414 T0000000000000015337  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -4612,7 +4612,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>2025-04-23 15:44:02.630 [INFO] database P0000070934 T0000000000000070934  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 15:58:15.233 [INFO] database P0000091708 T0000000000000091708  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -4624,19 +4624,19 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>2025-04-23 15:11:09.164 [ERROR] database P0000010414 T0000000000000015319  Reached the max session limit.</t>
+          <t>2025-04-23 15:22:42.696 [INFO] database P0000039800 T0000000000000039800  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>2025-04-23 14:55:19.094 [ERROR] database P0000010414 T0000000000000015337  Reached the max session limit.</t>
+          <t>2025-04-23 15:11:26.366 [ERROR] database P0000010414 T0000000000000015312  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -4648,31 +4648,31 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>2025-04-23 15:25:04.656 [INFO] database P0000043419 T0000000000000043419  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 15:33:22.310 [INFO] database P0000055615 T0000000000000055615  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>2025-04-23 14:42:48.038 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942175456), ckpt_fil(1), ckpt_off(221043200), cur_lsn(2826942334025), l_next_seq(46659482236), g_next_seq(46630684973), cur_free(256176128), total_space(8589926400), used_space(35134464), free_space(8554791936), n_ep(1)</t>
+          <t>2025-04-23 14:59:48.106 [ERROR] database P0000010414 T0000000000000015335  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>2025-04-23 14:42:48.023 [INFO] database P0000010414 T0000000000000013572  checkpoint begin, used_space[37070336], free_space[8552856064]...</t>
+          <t>2025-04-23 15:29:49.321 [INFO] database P0000050345 T0000000000000050345  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -4684,7 +4684,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>2025-04-23 14:54:20.919 [ERROR] database P0000010414 T0000000000000015346  Reached the max session limit.</t>
+          <t>2025-04-23 15:36:55.937 [INFO] database P0000060808 T0000000000000060808  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -4696,7 +4696,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>2025-04-23 14:53:03.044 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit.</t>
+          <t>2025-04-23 15:34:33.795 [INFO] database P0000057373 T0000000000000057373  info get from dcr disk, asm_host = localhost, asm_port = 24652992, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -4708,7 +4708,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>2025-04-23 15:19:09.593 [INFO] database P0000034512 T0000000000000034512  version info: enterprise</t>
+          <t>2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000069168  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -4720,7 +4720,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>2025-04-23 14:56:58.772 [ERROR] database P0000010414 T0000000000000015296  Reached the max session limit.</t>
+          <t>2025-04-23 15:02:23.613 [ERROR] database P0000010414 T0000000000000015347  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -4732,67 +4732,67 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>2025-04-23 14:43:00.176 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0</t>
+          <t>2025-04-23 15:42:51.666 [INFO] database P0000069304 T0000000000000069304  info get from dcr disk, asm_host = localhost, asm_port = 959175536, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>2025-04-23 15:23:53.898 [INFO] database P0000041615 T0000000000000041615  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 15:57:04.501 [INFO] database P0000089970 T0000000000000089970  info get from dcr disk, asm_host = localhost, asm_port = -1193106144, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>2025-04-23 15:38:06.945 [INFO] database P0000062613 T0000000000000062613  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 15:27:27.295 [INFO] database P0000046902 T0000000000000046902  info get from dcr disk, asm_host = localhost, asm_port = -1499177952, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>2025-04-23 14:57:31.702 [ERROR] database P0000010414 T0000000000000015307  Reached the max session limit.</t>
+          <t>2025-04-23 15:31:00.468 [INFO] database P0000052077 T0000000000000052077  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>2025-04-23 15:19:09.572 [INFO] database P0000034512 T0000000000000034512  info get from dcr disk, asm_host = localhost, asm_port = 934125424, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 15:27:26.851 [INFO] database P0000046902 T0000000000000046902  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>2025-04-23 14:58:09.329 [ERROR] database P0000010414 T0000000000000015296  Reached the max session limit.</t>
+          <t>2025-04-23 14:59:26.781 [ERROR] database P0000010414 T0000000000000015334  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -4804,31 +4804,31 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>2025-04-23 15:00:16.241 [ERROR] database P0000010414 T0000000000000015339  Reached the max session limit.</t>
+          <t>2025-04-23 15:41:42.842 [INFO] database P0000067641 T0000000000000067641  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>2025-04-23 15:08:29.746 [WARNING] database P0000010414 T0000000000000020550  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:22:42.703 [INFO] database P0000039800 T0000000000000039800  version info: enterprise</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>2025-04-23 15:00:47.833 [WARNING] database P0000010414 T0000000000000038260  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:06:32.787 [ERROR] database P0000010414 T0000000000000015311  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -4840,7 +4840,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>2025-04-23 14:58:58.024 [ERROR] database P0000010414 T0000000000000015317  Reached the max session limit.</t>
+          <t>2025-04-23 15:35:44.511 [INFO] database P0000059105 T0000000000000059105  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -4852,7 +4852,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>2025-04-23 15:58:15.724 [INFO] database P0000091708 T0000000000000091708  version info: enterprise</t>
+          <t>2025-04-23 14:49:59.226 [WARNING] database P0000010414 T0000000000000134960  socket_err_should_retry errno:38</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -4864,7 +4864,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>2025-04-23 14:55:11.699 [ERROR] database P0000010414 T0000000000000015307  Reached the max session limit.</t>
+          <t>2025-04-23 14:55:03.685 [ERROR] database P0000010414 T0000000000000015307  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -4876,7 +4876,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>2025-04-23 15:55:54.118 [INFO] database P0000088185 T0000000000000088185  info get from dcr disk, asm_host = localhost, asm_port = -667439056, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 15:49:58.307 [INFO] database P0000079472 T0000000000000079472  info get from dcr disk, asm_host = localhost, asm_port = 1055164720, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -4888,7 +4888,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000069170  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 14:53:03.044 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -4900,7 +4900,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000069168  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 14:52:56.353 [ERROR] database P0000010414 T0000000000000015341  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -4912,7 +4912,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>2025-04-23 15:39:17.777 [INFO] database P0000064327 T0000000000000064327  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 15:34:33.809 [INFO] database P0000057373 T0000000000000057373  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -4924,7 +4924,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>2025-04-23 15:22:42.703 [INFO] database P0000039800 T0000000000000039800  version info: enterprise</t>
+          <t>2025-04-23 15:23:53.568 [INFO] database P0000041615 T0000000000000041615  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -4936,19 +4936,19 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>2025-04-23 15:20:20.641 [INFO] database P0000036263 T0000000000000036263  version info: enterprise</t>
+          <t>2025-04-23 15:39:18.028 [INFO] database P0000064327 T0000000000000064327  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>2025-04-23 14:57:44.007 [WARNING] database P0000010414 T0000000000000067486  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 14:43:00.157 [INFO] database P0000010414 T0000000000000015248  checkpoint requested by CKPT_DIRTY_PAGES, rlog free space[8556843520], used space[33082880]</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -4960,19 +4960,19 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>2025-04-23 15:35:44.830 [INFO] database P0000059105 T0000000000000059105  info get from dcr disk, asm_host = localhost, asm_port = 1096376560, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000072352  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>2025-04-23 15:22:42.443 [INFO] database P0000039800 T0000000000000039800  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 15:49:58.320 [INFO] database P0000079472 T0000000000000079472  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -4984,31 +4984,31 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>2025-04-23 15:40:28.868 [INFO] database P0000066033 T0000000000000066033  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 14:59:19.366 [ERROR] database P0000010414 T0000000000000015338  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>2025-04-23 15:06:32.787 [ERROR] database P0000010414 T0000000000000015311  Reached the max session limit.</t>
+          <t>2025-04-23 16:00:37.446 [INFO] database P0000095243 T0000000000000095243  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>2025-04-23 15:33:22.314 [INFO] database P0000055615 T0000000000000055615  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 15:00:16.241 [ERROR] database P0000010414 T0000000000000015339  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -5020,7 +5020,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>2025-04-23 15:08:29.851 [ERROR] database P0000010414 T0000000000000015306  Reached the max session limit.</t>
+          <t>2025-04-23 15:25:05.008 [INFO] database P0000043419 T0000000000000043419  version info: enterprise</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -5032,7 +5032,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>2025-04-23 15:00:00.181 [ERROR] database P0000010414 T0000000000000015302  Reached the max session limit.</t>
+          <t>2025-04-23 14:43:00.157 [INFO] database P0000010414 T0000000000000015248  checkpoint generate by dirty_pages[10999] &gt; ckpt_dirty_pages[10000]</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -5044,31 +5044,31 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>2025-04-23 15:28:37.938 [INFO] database P0000048633 T0000000000000048633  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 15:55:53.057 [INFO] database P0000088185 T0000000000000088185  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>2025-04-23 15:48:47.056 [INFO] database P0000077779 T0000000000000077779  version info: enterprise</t>
+          <t>2025-04-23 14:57:44.135 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>2025-04-23 14:55:51.055 [ERROR] database P0000010414 T0000000000000015314  Reached the max session limit.</t>
+          <t>2025-04-23 15:21:31.617 [INFO] database P0000038061 T0000000000000038061  version info: enterprise</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -5080,55 +5080,55 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>2025-04-23 14:58:42.689 [ERROR] database P0000010414 T0000000000000015328  Reached the max session limit.</t>
+          <t>2025-04-23 15:29:49.025 [INFO] database P0000050345 T0000000000000050345  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>2025-04-23 14:53:13.964 [ERROR] database P0000010414 T0000000000000015302  Reached the max session limit.</t>
+          <t>2025-04-23 15:26:15.979 [INFO] database P0000045167 T0000000000000045167  info get from dcr disk, asm_host = localhost, asm_port = 368678048, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>2025-04-23 14:58:55.211 [ERROR] database P0000010414 T0000000000000015304  Reached the max session limit.</t>
+          <t>2025-04-23 15:52:22.132 [INFO] database P0000082963 T0000000000000082963  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>2025-04-23 14:43:00.183 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0</t>
+          <t>2025-04-23 15:29:49.309 [INFO] database P0000050345 T0000000000000050345  info get from dcr disk, asm_host = localhost, asm_port = 785222400, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>2025-04-23 15:48:47.048 [INFO] database P0000077779 T0000000000000077779  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 15:47:35.757 [INFO] database P0000076042 T0000000000000076042  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -5140,19 +5140,19 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>2025-04-23 15:00:52.245 [ERROR] database P0000010414 T0000000000000015321  Reached the max session limit.</t>
+          <t>2025-04-23 15:15:01.381 [ERROR] database P0000010414 T0000000000000015294  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>2025-04-23 15:13:15.903 [ERROR] database P0000010414 T0000000000000015295  Reached the max session limit.</t>
+          <t>2025-04-23 14:42:48.023 [INFO] database P0000010414 T0000000000000015249  checkpoint generate by dirty_pages[10536] &gt; ckpt_dirty_pages[10000]</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -5164,31 +5164,31 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>2025-04-23 15:11:13.082 [ERROR] database P0000010414 T0000000000000015350  Reached the max session limit.</t>
+          <t>2025-04-23 15:29:49.322 [INFO] database P0000050345 T0000000000000050345  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>2025-04-23 14:43:00.184 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942205832), ckpt_fil(1), ckpt_off(227897856), cur_lsn(2826942349077), l_next_seq(46659482376), g_next_seq(46630685113), cur_free(260072448), total_space(8589926400), used_space(32174592), free_space(8557751808), n_ep(1)</t>
+          <t>2025-04-23 15:00:18.038 [ERROR] database P0000010414 T0000000000000015351  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>2025-04-23 15:29:49.322 [INFO] database P0000050345 T0000000000000050345  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 15:04:26.024 [WARNING] database P0000010414 T0000000000000083672  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -5200,79 +5200,79 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>2025-04-23 14:42:59.176 [INFO] database P0000010414 T0000000000000015201  utsk_dw_udp_bro used 11s, cur_bro_time = 1745390579, last_bro_time = 1745390568</t>
+          <t>2025-04-23 15:51:08.696 [INFO] database P0000081263 T0000000000000081263  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>2025-04-23 15:21:31.608 [INFO] database P0000038061 T0000000000000038061  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 15:10:52.473 [ERROR] database P0000010414 T0000000000000015294  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>2025-04-23 15:16:40.755 [ERROR] database P0000010414 T0000000000000015334  Reached the max session limit.</t>
+          <t>2025-04-23 14:54:41.604 [ERROR] database P0000010414 T0000000000000015326  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>2025-04-23 15:33:22.310 [INFO] database P0000055615 T0000000000000055615  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 15:46:24.906 [INFO] database P0000074366 T0000000000000074366  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>2025-04-23 14:57:44.135 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit.</t>
+          <t>2025-04-23 15:17:58.211 [INFO] database P0000032706 T0000000000000032706  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>2025-04-23 15:11:12.951 [WARNING] database P0000010414 T0000000000000068749  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:42:51.680 [INFO] database P0000069304 T0000000000000069304  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>2025-04-23 15:16:45.092 [INFO] database P0000010414 T0000000000000010873  total 3 rfil opened!</t>
+          <t>2025-04-23 15:52:22.119 [INFO] database P0000082963 T0000000000000082963  info get from dcr disk, asm_host = localhost, asm_port = -919864256, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -5284,7 +5284,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>2025-04-23 15:46:24.357 [INFO] database P0000074366 T0000000000000074366  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 15:57:04.145 [INFO] database P0000089970 T0000000000000089970  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -5296,19 +5296,19 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>2025-04-23 14:56:41.297 [ERROR] database P0000010414 T0000000000000015306  Reached the max session limit.</t>
+          <t>2025-04-23 14:42:36.060 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942164226), ckpt_fil(1), ckpt_off(219097600), cur_lsn(2826942313022), l_next_seq(46659481498), g_next_seq(46630684235), cur_free(251105792), total_space(8589926400), used_space(32008192), free_space(8557918208), n_ep(1)</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>2025-04-23 15:52:19.789 [INFO] database P0000082963 T0000000000000082963  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 15:49:58.329 [INFO] database P0000079472 T0000000000000079472  version info: enterprise</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -5320,7 +5320,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>2025-04-23 15:55:54.140 [INFO] database P0000088185 T0000000000000088185  version info: enterprise</t>
+          <t>2025-04-23 15:44:02.637 [INFO] database P0000070934 T0000000000000070934  version info: enterprise</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -5332,67 +5332,67 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>2025-04-23 15:00:41.280 [ERROR] database P0000010414 T0000000000000015348  Reached the max session limit.</t>
+          <t>2025-04-23 15:16:45.084 [INFO] database P0000010414 T0000000000000010414  hpc_heart_beat_halt_and_wait change hdisk flag from 221 to 221</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>2025-04-23 15:06:41.321 [ERROR] database P0000010414 T0000000000000015337  Reached the max session limit.</t>
+          <t>2025-04-23 15:40:29.234 [INFO] database P0000066033 T0000000000000066033  info get from dcr disk, asm_host = localhost, asm_port = -32346592, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>2025-04-23 15:03:16.011 [ERROR] database P0000010414 T0000000000000015350  Reached the max session limit.</t>
+          <t>2025-04-23 15:40:29.234 [INFO] database P0000066033 T0000000000000066033  info get from dcr disk, asm_host = localhost, asm_port = -32346592, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>2025-04-23 15:20:20.632 [INFO] database P0000036263 T0000000000000036263  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 15:20:20.262 [INFO] database P0000036263 T0000000000000036263  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>2025-04-23 15:05:44.344 [ERROR] database P0000010414 T0000000000000015351  Reached the max session limit.</t>
+          <t>2025-04-23 14:58:09.329 [ERROR] database P0000010414 T0000000000000015296  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>2025-04-23 14:42:59.204 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942200438), ckpt_fil(1), ckpt_off(226969088), cur_lsn(2826942346072), l_next_seq(46659482256), g_next_seq(46630684993), cur_free(259532800), total_space(8589926400), used_space(32563712), free_space(8557362688), n_ep(1)</t>
+          <t>2025-04-23 14:42:59.193 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942188452), ckpt_fil(1), ckpt_off(223807488), cur_lsn(2826942345610), l_next_seq(46659482246), g_next_seq(46630684983), cur_free(259502080), total_space(8589926400), used_space(35700224), free_space(8554226176), n_ep(1)</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -5404,19 +5404,19 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>2025-04-23 15:22:42.696 [INFO] database P0000039800 T0000000000000039800  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 15:36:55.604 [INFO] database P0000060808 T0000000000000060808  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>2025-04-23 15:57:04.514 [INFO] database P0000089970 T0000000000000089970  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 14:59:22.916 [ERROR] database P0000010414 T0000000000000015337  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -5428,7 +5428,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>2025-04-23 15:27:27.295 [INFO] database P0000046902 T0000000000000046902  info get from dcr disk, asm_host = localhost, asm_port = -1499177952, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 15:23:53.897 [INFO] database P0000041615 T0000000000000041615  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -5440,7 +5440,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>2025-04-23 15:42:51.687 [INFO] database P0000069304 T0000000000000069304  version info: enterprise</t>
+          <t>2025-04-23 14:56:20.749 [ERROR] database P0000010414 T0000000000000015354  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -5452,7 +5452,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>2025-04-23 15:12:23.733 [ERROR] database P0000010414 T0000000000000015316  Reached the max session limit.</t>
+          <t>2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000074212  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -5464,31 +5464,31 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>2025-04-23 15:04:25.545 [ERROR] database P0000010414 T0000000000000015312  Reached the max session limit.</t>
+          <t>2025-04-23 14:49:01.955 [WARNING] database P0000010414 T0000000000000133224  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>2025-04-23 14:59:26.781 [ERROR] database P0000010414 T0000000000000015334  Reached the max session limit.</t>
+          <t>2025-04-23 15:10:32.743 [WARNING] database P0000010414 T0000000000000123810  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>2025-04-23 15:28:38.272 [INFO] database P0000048633 T0000000000000048633  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 15:16:45.084 [FATAL] database P0000010414 T0000000000000010414  sigterm_handler receive signal 11</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -5500,19 +5500,19 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>2025-04-23 15:15:01.381 [ERROR] database P0000010414 T0000000000000015294  Reached the max session limit.</t>
+          <t>2025-04-23 15:28:37.935 [INFO] database P0000048633 T0000000000000048633  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>2025-04-23 15:10:41.779 [ERROR] database P0000010414 T0000000000000015294  Reached the max session limit.</t>
+          <t>2025-04-23 15:38:06.953 [INFO] database P0000062613 T0000000000000062613  version info: enterprise</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -5524,7 +5524,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>2025-04-23 15:23:53.906 [INFO] database P0000041615 T0000000000000041615  version info: enterprise</t>
+          <t>2025-04-23 15:29:49.022 [INFO] database P0000050345 T0000000000000050345  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -5536,7 +5536,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>2025-04-23 15:21:31.595 [INFO] database P0000038061 T0000000000000038061  info get from dcr disk, asm_host = localhost, asm_port = 669194080, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 15:00:20.825 [ERROR] database P0000010414 T0000000000000015332  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -5548,7 +5548,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>2025-04-23 14:57:05.371 [ERROR] database P0000010414 T0000000000000015356  Reached the max session limit.</t>
+          <t>2025-04-23 15:51:09.106 [INFO] database P0000081263 T0000000000000081263  version info: enterprise</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -5560,67 +5560,67 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>2025-04-23 15:26:15.979 [INFO] database P0000045167 T0000000000000045167  info get from dcr disk, asm_host = localhost, asm_port = 368678048, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 15:41:42.852 [INFO] database P0000067641 T0000000000000067641  version info: enterprise</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>2025-04-23 15:10:54.994 [ERROR] database P0000010414 T0000000000000015331  Reached the max session limit.</t>
+          <t>2025-04-23 14:43:00.157 [INFO] database P0000010414 T0000000000000013572  checkpoint begin, used_space[33082880], free_space[8556843520]...</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>2025-04-23 15:27:27.308 [INFO] database P0000046902 T0000000000000046902  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 15:04:51.975 [ERROR] database P0000010414 T0000000000000015319  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>2025-04-23 14:42:36.060 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942164226), ckpt_fil(1), ckpt_off(219097600), cur_lsn(2826942313022), l_next_seq(46659481498), g_next_seq(46630684235), cur_free(251105792), total_space(8589926400), used_space(32008192), free_space(8557918208), n_ep(1)</t>
+          <t>2025-04-23 14:48:09.610 [WARNING] database P0000010414 T0000000000000131641  socket_err_should_retry errno:38</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>2025-04-23 15:41:42.842 [INFO] database P0000067641 T0000000000000067641  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 15:47:35.450 [INFO] database P0000076042 T0000000000000076042  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>2025-04-23 15:31:00.469 [INFO] database P0000052077 T0000000000000052077  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 15:45:14.252 [INFO] database P0000072676 T0000000000000072676  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -5632,7 +5632,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>2025-04-23 14:53:42.091 [ERROR] database P0000010414 T0000000000000015335  Reached the max session limit.</t>
+          <t>2025-04-23 14:53:19.229 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -5644,7 +5644,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>2025-04-23 15:52:22.141 [INFO] database P0000082963 T0000000000000082963  version info: enterprise</t>
+          <t>2025-04-23 15:19:09.183 [INFO] database P0000034512 T0000000000000034512  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -5656,31 +5656,31 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>2025-04-23 15:42:51.064 [INFO] database P0000069304 T0000000000000069304  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 15:59:26.772 [INFO] database P0000093438 T0000000000000093438  version info: enterprise</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>2025-04-23 15:16:45.084 [FATAL] database P0000010414 T0000000000000010414  sigterm_handler receive signal 11</t>
+          <t>2025-04-23 15:35:44.843 [INFO] database P0000059105 T0000000000000059105  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000072352  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:35:44.844 [INFO] database P0000059105 T0000000000000059105  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -5692,7 +5692,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>2025-04-23 15:31:00.456 [INFO] database P0000052077 T0000000000000052077  info get from dcr disk, asm_host = localhost, asm_port = 1325557600, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000078503  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -5704,7 +5704,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>2025-04-23 15:10:29.512 [ERROR] database P0000010414 T0000000000000015325  Reached the max session limit.</t>
+          <t>2025-04-23 15:11:43.274 [ERROR] database P0000010414 T0000000000000015345  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -5716,7 +5716,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>2025-04-23 15:01:41.293 [ERROR] database P0000010414 T0000000000000015319  Reached the max session limit.</t>
+          <t>2025-04-23 14:42:59.204 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942200438), ckpt_fil(1), ckpt_off(226969088), cur_lsn(2826942346072), l_next_seq(46659482256), g_next_seq(46630684993), cur_free(259532800), total_space(8589926400), used_space(32563712), free_space(8557362688), n_ep(1)</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -5728,7 +5728,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>2025-04-23 15:28:38.273 [INFO] database P0000048633 T0000000000000048633  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 15:02:26.865 [ERROR] database P0000010414 T0000000000000015341  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -5740,7 +5740,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>2025-04-23 15:39:18.028 [INFO] database P0000064327 T0000000000000064327  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 14:42:48.038 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -5752,7 +5752,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>2025-04-23 14:43:31.161 [INFO] database P0000010414 T0000000000000015201  utsk_get_dw_svr_info used 31 seconds</t>
+          <t>2025-04-23 15:04:26.022 [WARNING] database P0000010414 T0000000000000079836  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -5764,19 +5764,19 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>2025-04-23 15:04:17.585 [ERROR] database P0000010414 T0000000000000015345  Reached the max session limit.</t>
+          <t>2025-04-23 15:32:11.222 [INFO] database P0000053877 T0000000000000053877  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>2025-04-23 14:58:51.943 [ERROR] database P0000010414 T0000000000000015336  Reached the max session limit.</t>
+          <t>2025-04-23 14:58:58.024 [ERROR] database P0000010414 T0000000000000015317  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -5788,7 +5788,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>2025-04-23 15:21:31.617 [INFO] database P0000038061 T0000000000000038061  version info: enterprise</t>
+          <t>2025-04-23 15:03:16.011 [ERROR] database P0000010414 T0000000000000015350  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -5800,7 +5800,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>2025-04-23 14:49:59.226 [WARNING] database P0000010414 T0000000000000134960  socket_err_should_retry errno:38</t>
+          <t>2025-04-23 15:41:40.701 [INFO] database P0000067641 T0000000000000067641  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -5812,7 +5812,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>2025-04-23 14:44:01.236 [WARNING] database P0000010414 T0000000000000124418  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:21:31.609 [INFO] database P0000038061 T0000000000000038061  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -5824,7 +5824,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>2025-04-23 15:42:51.061 [INFO] database P0000069304 T0000000000000069304  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 15:11:12.951 [WARNING] database P0000010414 T0000000000000068749  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -5836,7 +5836,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>2025-04-23 15:53:32.143 [INFO] database P0000084718 T0000000000000084718  dmshm2_attach, success, shm id 294913</t>
+          <t>2025-04-23 15:04:39.595 [ERROR] database P0000010414 T0000000000000015355  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -5848,7 +5848,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>2025-04-23 15:04:57.200 [ERROR] database P0000010414 T0000000000000015325  Reached the max session limit.</t>
+          <t>2025-04-23 15:44:02.616 [INFO] database P0000070934 T0000000000000070934  info get from dcr disk, asm_host = localhost, asm_port = -1934299008, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -5860,31 +5860,31 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>2025-04-23 15:27:26.851 [INFO] database P0000046902 T0000000000000046902  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 15:46:24.357 [INFO] database P0000074366 T0000000000000074366  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>2025-04-23 14:59:05.111 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit.</t>
+          <t>2025-04-23 15:11:12.948 [WARNING] database P0000010414 T0000000000000077762  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>2025-04-23 15:38:06.694 [INFO] database P0000062613 T0000000000000062613  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 15:55:54.132 [INFO] database P0000088185 T0000000000000088185  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -5896,19 +5896,19 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>2025-04-23 15:46:24.892 [INFO] database P0000074366 T0000000000000074366  info get from dcr disk, asm_host = localhost, asm_port = -982684112, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 15:00:47.833 [WARNING] database P0000010414 T0000000000000038260  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>2025-04-23 14:43:00.189 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0</t>
+          <t>2025-04-23 15:15:52.046 [ERROR] database P0000010414 T0000000000000015357  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -5920,19 +5920,19 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>2025-04-23 15:40:29.234 [INFO] database P0000066033 T0000000000000066033  info get from dcr disk, asm_host = localhost, asm_port = -32346592, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 15:13:09.229 [ERROR] database P0000010414 T0000000000000015351  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>2025-04-23 15:51:09.085 [INFO] database P0000081263 T0000000000000081263  info get from dcr disk, asm_host = localhost, asm_port = 765973808, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
+          <t>2025-04-23 15:01:46.393 [ERROR] database P0000010414 T0000000000000015322  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -5944,7 +5944,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000082807  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:10:30.019 [ERROR] database P0000010414 T0000000000000015354  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -5956,19 +5956,19 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>2025-04-23 15:15:37.478 [ERROR] database P0000010414 T0000000000000015322  Reached the max session limit.</t>
+          <t>2025-04-23 15:26:16.000 [INFO] database P0000045167 T0000000000000045167  version info: enterprise</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>2025-04-23 14:43:00.157 [INFO] database P0000010414 T0000000000000013572  checkpoint begin, used_space[33082880], free_space[8556843520]...</t>
+          <t>2025-04-23 15:55:53.060 [INFO] database P0000088185 T0000000000000088185  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -5980,7 +5980,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>2025-04-23 15:10:32.741 [WARNING] database P0000010414 T0000000000000125500  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 14:56:26.674 [ERROR] database P0000010414 T0000000000000015340  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -5992,7 +5992,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>2025-04-23 15:55:54.132 [INFO] database P0000088185 T0000000000000088185  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 15:23:53.884 [INFO] database P0000041615 T0000000000000041615  info get from dcr disk, asm_host = localhost, asm_port = -1294140448, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -6004,19 +6004,19 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000078503  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:41:42.843 [INFO] database P0000067641 T0000000000000067641  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>2025-04-23 15:36:55.607 [INFO] database P0000060808 T0000000000000060808  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 15:42:51.679 [INFO] database P0000069304 T0000000000000069304  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -6028,79 +6028,79 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>2025-04-23 15:52:22.133 [INFO] database P0000082963 T0000000000000082963  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+          <t>2025-04-23 14:54:12.745 [ERROR] database P0000010414 T0000000000000015326  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>2025-04-23 15:04:26.020 [WARNING] database P0000010414 T0000000000000080165  socket_err_should_retry errno:104</t>
+          <t>2025-04-23 15:04:26.150 [ERROR] database P0000010414 T0000000000000015343  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>2025-04-23 15:41:42.852 [INFO] database P0000067641 T0000000000000067641  version info: enterprise</t>
+          <t>2025-04-23 15:36:55.922 [INFO] database P0000060808 T0000000000000060808  info get from dcr disk, asm_host = localhost, asm_port = -1069127248, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>2025-04-23 15:41:40.701 [INFO] database P0000067641 T0000000000000067641  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 15:17:58.204 [INFO] database P0000032706 T0000000000000032706  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>2025-04-23 14:57:56.527 [ERROR] database P0000010414 T0000000000000015344  Reached the max session limit.</t>
+          <t>2025-04-23 15:34:33.418 [INFO] database P0000057373 T0000000000000057373  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>abnormal</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>2025-04-23 14:55:41.259 [ERROR] database P0000010414 T0000000000000015347  Reached the max session limit.</t>
+          <t>2025-04-23 15:10:32.744 [WARNING] database P0000010414 T0000000000000126573  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>abnormal</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>2025-04-23 15:57:04.142 [INFO] database P0000089970 T0000000000000089970  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
+          <t>2025-04-23 15:22:42.682 [INFO] database P0000039800 T0000000000000039800  info get from dcr disk, asm_host = localhost, asm_port = 115568496, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -6112,10 +6112,22 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>2025-04-23 15:57:04.145 [INFO] database P0000089970 T0000000000000089970  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+          <t>2025-04-23 15:06:53.695 [ERROR] database P0000010414 T0000000000000015328  Reached the max session limit.</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>2025-04-23 15:27:27.309 [INFO] database P0000046902 T0000000000000046902  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
         <is>
           <t>UNKNOWN</t>
         </is>
